--- a/20_営業/12_OIC共通/TE030/T_TE030_CCD_012_実行結果出力.xlsx
+++ b/20_営業/12_OIC共通/TE030/T_TE030_CCD_012_実行結果出力.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\89_SaaS対応\20_ERPCloud導入\20_実装フェーズ\10_成果物\16_単体テスト実施\外部結合完了時\OIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_20201～20300\E_本稼動_20218【OIC共通】OICエラーリトライ\20_成果物\XXCCD012\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" tabRatio="826"/>
+    <workbookView xWindow="0" yWindow="4800" windowWidth="23040" windowHeight="8940" tabRatio="826"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -24,17 +24,18 @@
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ5)" sheetId="14" r:id="rId10"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ6)" sheetId="15" r:id="rId11"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ7)" sheetId="16" r:id="rId12"/>
-    <sheet name="不具合ログ" sheetId="7" r:id="rId13"/>
-    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId14"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ8)" sheetId="17" r:id="rId13"/>
+    <sheet name="不具合ログ" sheetId="7" r:id="rId14"/>
+    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId15"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
     <externalReference r:id="rId19"/>
     <externalReference r:id="rId20"/>
     <externalReference r:id="rId21"/>
+    <externalReference r:id="rId22"/>
   </externalReferences>
   <definedNames>
     <definedName name="_______ｚｚ１" localSheetId="5">#REF!</definedName>
@@ -44,6 +45,7 @@
     <definedName name="_______ｚｚ１" localSheetId="9">#REF!</definedName>
     <definedName name="_______ｚｚ１" localSheetId="10">#REF!</definedName>
     <definedName name="_______ｚｚ１" localSheetId="11">#REF!</definedName>
+    <definedName name="_______ｚｚ１" localSheetId="12">#REF!</definedName>
     <definedName name="_______ｚｚ１">#REF!</definedName>
     <definedName name="______ｚｚ１" localSheetId="5">#REF!</definedName>
     <definedName name="______ｚｚ１" localSheetId="6">#REF!</definedName>
@@ -52,6 +54,7 @@
     <definedName name="______ｚｚ１" localSheetId="9">#REF!</definedName>
     <definedName name="______ｚｚ１" localSheetId="10">#REF!</definedName>
     <definedName name="______ｚｚ１" localSheetId="11">#REF!</definedName>
+    <definedName name="______ｚｚ１" localSheetId="12">#REF!</definedName>
     <definedName name="______ｚｚ１">#REF!</definedName>
     <definedName name="_____ｚｚ１" localSheetId="5">#REF!</definedName>
     <definedName name="_____ｚｚ１" localSheetId="6">#REF!</definedName>
@@ -60,6 +63,7 @@
     <definedName name="_____ｚｚ１" localSheetId="9">#REF!</definedName>
     <definedName name="_____ｚｚ１" localSheetId="10">#REF!</definedName>
     <definedName name="_____ｚｚ１" localSheetId="11">#REF!</definedName>
+    <definedName name="_____ｚｚ１" localSheetId="12">#REF!</definedName>
     <definedName name="_____ｚｚ１">#REF!</definedName>
     <definedName name="____ｚｚ１" localSheetId="5">#REF!</definedName>
     <definedName name="____ｚｚ１" localSheetId="6">#REF!</definedName>
@@ -68,6 +72,7 @@
     <definedName name="____ｚｚ１" localSheetId="9">#REF!</definedName>
     <definedName name="____ｚｚ１" localSheetId="10">#REF!</definedName>
     <definedName name="____ｚｚ１" localSheetId="11">#REF!</definedName>
+    <definedName name="____ｚｚ１" localSheetId="12">#REF!</definedName>
     <definedName name="____ｚｚ１">#REF!</definedName>
     <definedName name="___ｚｚ１" localSheetId="5">#REF!</definedName>
     <definedName name="___ｚｚ１" localSheetId="6">#REF!</definedName>
@@ -76,6 +81,7 @@
     <definedName name="___ｚｚ１" localSheetId="9">#REF!</definedName>
     <definedName name="___ｚｚ１" localSheetId="10">#REF!</definedName>
     <definedName name="___ｚｚ１" localSheetId="11">#REF!</definedName>
+    <definedName name="___ｚｚ１" localSheetId="12">#REF!</definedName>
     <definedName name="___ｚｚ１">#REF!</definedName>
     <definedName name="__ｚｚ１" localSheetId="5">#REF!</definedName>
     <definedName name="__ｚｚ１" localSheetId="6">#REF!</definedName>
@@ -84,6 +90,7 @@
     <definedName name="__ｚｚ１" localSheetId="9">#REF!</definedName>
     <definedName name="__ｚｚ１" localSheetId="10">#REF!</definedName>
     <definedName name="__ｚｚ１" localSheetId="11">#REF!</definedName>
+    <definedName name="__ｚｚ１" localSheetId="12">#REF!</definedName>
     <definedName name="__ｚｚ１">#REF!</definedName>
     <definedName name="_Fill" localSheetId="4" hidden="1">[1]テーブル仕様!#REF!</definedName>
     <definedName name="_Fill" localSheetId="5" hidden="1">[1]テーブル仕様!#REF!</definedName>
@@ -93,10 +100,11 @@
     <definedName name="_Fill" localSheetId="9" hidden="1">[1]テーブル仕様!#REF!</definedName>
     <definedName name="_Fill" localSheetId="10" hidden="1">[1]テーブル仕様!#REF!</definedName>
     <definedName name="_Fill" localSheetId="11" hidden="1">[1]テーブル仕様!#REF!</definedName>
+    <definedName name="_Fill" localSheetId="12" hidden="1">[1]テーブル仕様!#REF!</definedName>
     <definedName name="_Fill" localSheetId="2" hidden="1">[1]テーブル仕様!#REF!</definedName>
-    <definedName name="_Fill" localSheetId="12" hidden="1">[1]テーブル仕様!#REF!</definedName>
+    <definedName name="_Fill" localSheetId="13" hidden="1">[1]テーブル仕様!#REF!</definedName>
     <definedName name="_Fill" localSheetId="1" hidden="1">[1]テーブル仕様!#REF!</definedName>
-    <definedName name="_Fill" localSheetId="13" hidden="1">[1]テーブル仕様!#REF!</definedName>
+    <definedName name="_Fill" localSheetId="14" hidden="1">[1]テーブル仕様!#REF!</definedName>
     <definedName name="_Fill" hidden="1">[1]テーブル仕様!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" hidden="1">'[2]１．InfoCube (YKCH0010)案１:１．InfoCube (YKCH0010) 案２'!$W$5:$W$5</definedName>
     <definedName name="_Regression_X" localSheetId="3" hidden="1">#REF!</definedName>
@@ -108,10 +116,11 @@
     <definedName name="_Regression_X" localSheetId="9" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" localSheetId="10" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" localSheetId="11" hidden="1">#REF!</definedName>
+    <definedName name="_Regression_X" localSheetId="12" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" localSheetId="2" hidden="1">#REF!</definedName>
-    <definedName name="_Regression_X" localSheetId="12" hidden="1">#REF!</definedName>
+    <definedName name="_Regression_X" localSheetId="13" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" localSheetId="1" hidden="1">#REF!</definedName>
-    <definedName name="_Regression_X" localSheetId="13" hidden="1">#REF!</definedName>
+    <definedName name="_Regression_X" localSheetId="14" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" hidden="1">#REF!</definedName>
     <definedName name="_Toc22116238" localSheetId="5">'テスト仕様_テスト結果(テスト・シナリオ1)'!#REF!</definedName>
     <definedName name="_Toc22116238" localSheetId="6">'テスト仕様_テスト結果(テスト・シナリオ2)'!#REF!</definedName>
@@ -120,11 +129,12 @@
     <definedName name="_Toc22116238" localSheetId="9">'テスト仕様_テスト結果(テスト・シナリオ5)'!#REF!</definedName>
     <definedName name="_Toc22116238" localSheetId="10">'テスト仕様_テスト結果(テスト・シナリオ6)'!#REF!</definedName>
     <definedName name="_Toc22116238" localSheetId="11">'テスト仕様_テスト結果(テスト・シナリオ7)'!#REF!</definedName>
+    <definedName name="_Toc22116238" localSheetId="12">'テスト仕様_テスト結果(テスト・シナリオ8)'!#REF!</definedName>
     <definedName name="_Toc22116239" localSheetId="4">テスト仕様_データ・プロファイル!$A$2</definedName>
-    <definedName name="_Toc22116241" localSheetId="12">不具合ログ!$A$2</definedName>
-    <definedName name="_Toc498334709" localSheetId="13">未完了の課題と完了済みの課題!$A$2</definedName>
-    <definedName name="_Toc498334710" localSheetId="13">未完了の課題と完了済みの課題!$A$5</definedName>
-    <definedName name="_Toc498334711" localSheetId="13">未完了の課題と完了済みの課題!$A$12</definedName>
+    <definedName name="_Toc22116241" localSheetId="13">不具合ログ!$A$2</definedName>
+    <definedName name="_Toc498334709" localSheetId="14">未完了の課題と完了済みの課題!$A$2</definedName>
+    <definedName name="_Toc498334710" localSheetId="14">未完了の課題と完了済みの課題!$A$5</definedName>
+    <definedName name="_Toc498334711" localSheetId="14">未完了の課題と完了済みの課題!$A$12</definedName>
     <definedName name="_Toc75175702" localSheetId="1">文書管理!$A$2</definedName>
     <definedName name="_Toc75175703" localSheetId="1">文書管理!$A$5</definedName>
     <definedName name="_Toc75175704" localSheetId="1">文書管理!#REF!</definedName>
@@ -136,6 +146,7 @@
     <definedName name="_ｚｚ１" localSheetId="9">#REF!</definedName>
     <definedName name="_ｚｚ１" localSheetId="10">#REF!</definedName>
     <definedName name="_ｚｚ１" localSheetId="11">#REF!</definedName>
+    <definedName name="_ｚｚ１" localSheetId="12">#REF!</definedName>
     <definedName name="_ｚｚ１">#REF!</definedName>
     <definedName name="a" localSheetId="3" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
     <definedName name="a" localSheetId="4">#REF!</definedName>
@@ -146,10 +157,11 @@
     <definedName name="a" localSheetId="9">#REF!</definedName>
     <definedName name="a" localSheetId="10">#REF!</definedName>
     <definedName name="a" localSheetId="11">#REF!</definedName>
+    <definedName name="a" localSheetId="12">#REF!</definedName>
     <definedName name="a" localSheetId="2">#REF!</definedName>
-    <definedName name="a" localSheetId="12">#REF!</definedName>
+    <definedName name="a" localSheetId="13">#REF!</definedName>
     <definedName name="a" localSheetId="1">#REF!</definedName>
-    <definedName name="a" localSheetId="13">#REF!</definedName>
+    <definedName name="a" localSheetId="14">#REF!</definedName>
     <definedName name="a">#REF!</definedName>
     <definedName name="aa" localSheetId="3" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
     <definedName name="aa" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
@@ -163,10 +175,11 @@
     <definedName name="aplcode" localSheetId="9">#REF!</definedName>
     <definedName name="aplcode" localSheetId="10">#REF!</definedName>
     <definedName name="aplcode" localSheetId="11">#REF!</definedName>
+    <definedName name="aplcode" localSheetId="12">#REF!</definedName>
     <definedName name="aplcode" localSheetId="2">#REF!</definedName>
-    <definedName name="aplcode" localSheetId="12">#REF!</definedName>
+    <definedName name="aplcode" localSheetId="13">#REF!</definedName>
     <definedName name="aplcode" localSheetId="1">#REF!</definedName>
-    <definedName name="aplcode" localSheetId="13">#REF!</definedName>
+    <definedName name="aplcode" localSheetId="14">#REF!</definedName>
     <definedName name="aplcode">#REF!</definedName>
     <definedName name="aplname" localSheetId="4">#REF!</definedName>
     <definedName name="aplname" localSheetId="5">#REF!</definedName>
@@ -176,10 +189,11 @@
     <definedName name="aplname" localSheetId="9">#REF!</definedName>
     <definedName name="aplname" localSheetId="10">#REF!</definedName>
     <definedName name="aplname" localSheetId="11">#REF!</definedName>
+    <definedName name="aplname" localSheetId="12">#REF!</definedName>
     <definedName name="aplname" localSheetId="2">#REF!</definedName>
-    <definedName name="aplname" localSheetId="12">#REF!</definedName>
+    <definedName name="aplname" localSheetId="13">#REF!</definedName>
     <definedName name="aplname" localSheetId="1">#REF!</definedName>
-    <definedName name="aplname" localSheetId="13">#REF!</definedName>
+    <definedName name="aplname" localSheetId="14">#REF!</definedName>
     <definedName name="aplname">#REF!</definedName>
     <definedName name="b" localSheetId="4">#REF!</definedName>
     <definedName name="b" localSheetId="5">#REF!</definedName>
@@ -189,10 +203,11 @@
     <definedName name="b" localSheetId="9">#REF!</definedName>
     <definedName name="b" localSheetId="10">#REF!</definedName>
     <definedName name="b" localSheetId="11">#REF!</definedName>
+    <definedName name="b" localSheetId="12">#REF!</definedName>
     <definedName name="b" localSheetId="2">#REF!</definedName>
-    <definedName name="b" localSheetId="12">#REF!</definedName>
+    <definedName name="b" localSheetId="13">#REF!</definedName>
     <definedName name="b" localSheetId="1">#REF!</definedName>
-    <definedName name="b" localSheetId="13">#REF!</definedName>
+    <definedName name="b" localSheetId="14">#REF!</definedName>
     <definedName name="b">#REF!</definedName>
     <definedName name="Command_Click" localSheetId="5">[3]!Command_Click</definedName>
     <definedName name="Command_Click" localSheetId="6">[3]!Command_Click</definedName>
@@ -201,6 +216,7 @@
     <definedName name="Command_Click" localSheetId="9">[3]!Command_Click</definedName>
     <definedName name="Command_Click" localSheetId="10">[3]!Command_Click</definedName>
     <definedName name="Command_Click" localSheetId="11">[3]!Command_Click</definedName>
+    <definedName name="Command_Click" localSheetId="12">[3]!Command_Click</definedName>
     <definedName name="Command_Click">[3]!Command_Click</definedName>
     <definedName name="_xlnm.Database" localSheetId="4">[4]PR!#REF!</definedName>
     <definedName name="_xlnm.Database" localSheetId="5">[4]PR!#REF!</definedName>
@@ -210,10 +226,11 @@
     <definedName name="_xlnm.Database" localSheetId="9">[4]PR!#REF!</definedName>
     <definedName name="_xlnm.Database" localSheetId="10">[4]PR!#REF!</definedName>
     <definedName name="_xlnm.Database" localSheetId="11">[4]PR!#REF!</definedName>
+    <definedName name="_xlnm.Database" localSheetId="12">[4]PR!#REF!</definedName>
     <definedName name="_xlnm.Database" localSheetId="2">[4]PR!#REF!</definedName>
-    <definedName name="_xlnm.Database" localSheetId="12">[4]PR!#REF!</definedName>
+    <definedName name="_xlnm.Database" localSheetId="13">[4]PR!#REF!</definedName>
     <definedName name="_xlnm.Database" localSheetId="1">[4]PR!#REF!</definedName>
-    <definedName name="_xlnm.Database" localSheetId="13">[4]PR!#REF!</definedName>
+    <definedName name="_xlnm.Database" localSheetId="14">[4]PR!#REF!</definedName>
     <definedName name="_xlnm.Database">[4]PR!#REF!</definedName>
     <definedName name="DocRefNumber" localSheetId="2">作成上の注意点!#REF!</definedName>
     <definedName name="DocRefNumber" localSheetId="1">文書管理!#REF!</definedName>
@@ -238,8 +255,8 @@
     <definedName name="LOV_pol_mileage_FinExmPolicyMileageAdfDiPageDef_FuelType" hidden="1">[6]_ADFDI_LOV!$D$6:$G$6</definedName>
     <definedName name="LOV_pol_mileage_FinExmPolicyMileageAdfDiPageDef_VehicleCategory" hidden="1">[7]_ADFDI_LOV!$D$2:$F$2</definedName>
     <definedName name="LOV_pol_mileage_FinExmPolicyMileageAdfDiPageDef_VehicleType" hidden="1">[6]_ADFDI_LOV!$D$4:$I$4</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">テスト・シナリオ一覧!$A$1:$F$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">テスト仕様_データ・プロファイル!$A$1:$C$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">テスト・シナリオ一覧!$A$1:$F$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">テスト仕様_データ・プロファイル!$A$1:$C$61</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'テスト仕様_テスト結果(テスト・シナリオ1)'!$A$1:$I$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'テスト仕様_テスト結果(テスト・シナリオ2)'!$A$1:$I$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'テスト仕様_テスト結果(テスト・シナリオ3)'!$A$1:$I$29</definedName>
@@ -247,16 +264,17 @@
     <definedName name="_xlnm.Print_Area" localSheetId="9">'テスト仕様_テスト結果(テスト・シナリオ5)'!$A$1:$I$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'テスト仕様_テスト結果(テスト・シナリオ6)'!$A$1:$I$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'テスト仕様_テスト結果(テスト・シナリオ7)'!$A$1:$I$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'テスト仕様_テスト結果(テスト・シナリオ8)'!$A$1:$I$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">作成上の注意点!$A$1:$M$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$H$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$17</definedName>
     <definedName name="Subject" localSheetId="2">作成上の注意点!#REF!</definedName>
     <definedName name="Subject" localSheetId="1">文書管理!#REF!</definedName>
     <definedName name="TitleEnd" localSheetId="2">作成上の注意点!#REF!</definedName>
     <definedName name="TitleEnd" localSheetId="1">文書管理!$A$5</definedName>
     <definedName name="wrn.仕様書表紙." localSheetId="3" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
     <definedName name="wrn.仕様書表紙." hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
-    <definedName name="Z_6EDBC85B_A24D_42E2_9426_F17C7F3E3F3C_.wvu.PrintArea" localSheetId="4" hidden="1">テスト仕様_データ・プロファイル!$A$1:$C$40</definedName>
+    <definedName name="Z_6EDBC85B_A24D_42E2_9426_F17C7F3E3F3C_.wvu.PrintArea" localSheetId="4" hidden="1">テスト仕様_データ・プロファイル!$A$1:$C$61</definedName>
     <definedName name="Z_6EDBC85B_A24D_42E2_9426_F17C7F3E3F3C_.wvu.PrintArea" localSheetId="5" hidden="1">'テスト仕様_テスト結果(テスト・シナリオ1)'!$A$1:$I$30</definedName>
     <definedName name="Z_6EDBC85B_A24D_42E2_9426_F17C7F3E3F3C_.wvu.PrintArea" localSheetId="6" hidden="1">'テスト仕様_テスト結果(テスト・シナリオ2)'!$A$1:$I$30</definedName>
     <definedName name="Z_6EDBC85B_A24D_42E2_9426_F17C7F3E3F3C_.wvu.PrintArea" localSheetId="7" hidden="1">'テスト仕様_テスト結果(テスト・シナリオ3)'!$A$1:$I$29</definedName>
@@ -264,10 +282,11 @@
     <definedName name="Z_6EDBC85B_A24D_42E2_9426_F17C7F3E3F3C_.wvu.PrintArea" localSheetId="9" hidden="1">'テスト仕様_テスト結果(テスト・シナリオ5)'!$A$1:$I$29</definedName>
     <definedName name="Z_6EDBC85B_A24D_42E2_9426_F17C7F3E3F3C_.wvu.PrintArea" localSheetId="10" hidden="1">'テスト仕様_テスト結果(テスト・シナリオ6)'!$A$1:$I$28</definedName>
     <definedName name="Z_6EDBC85B_A24D_42E2_9426_F17C7F3E3F3C_.wvu.PrintArea" localSheetId="11" hidden="1">'テスト仕様_テスト結果(テスト・シナリオ7)'!$A$1:$I$34</definedName>
+    <definedName name="Z_6EDBC85B_A24D_42E2_9426_F17C7F3E3F3C_.wvu.PrintArea" localSheetId="12" hidden="1">'テスト仕様_テスト結果(テスト・シナリオ8)'!$A$1:$I$67</definedName>
     <definedName name="Z_6EDBC85B_A24D_42E2_9426_F17C7F3E3F3C_.wvu.PrintArea" localSheetId="2" hidden="1">作成上の注意点!$A$1:$M$37</definedName>
     <definedName name="Z_6EDBC85B_A24D_42E2_9426_F17C7F3E3F3C_.wvu.PrintArea" localSheetId="0" hidden="1">表紙!$A$1:$H$29</definedName>
-    <definedName name="Z_6EDBC85B_A24D_42E2_9426_F17C7F3E3F3C_.wvu.PrintArea" localSheetId="1" hidden="1">文書管理!$A$1:$I$16</definedName>
-    <definedName name="Z_E59549F1_184A_41A7_90D6_BEA0126A1220_.wvu.PrintArea" localSheetId="4" hidden="1">テスト仕様_データ・プロファイル!$A$1:$C$40</definedName>
+    <definedName name="Z_6EDBC85B_A24D_42E2_9426_F17C7F3E3F3C_.wvu.PrintArea" localSheetId="1" hidden="1">文書管理!$A$1:$I$17</definedName>
+    <definedName name="Z_E59549F1_184A_41A7_90D6_BEA0126A1220_.wvu.PrintArea" localSheetId="4" hidden="1">テスト仕様_データ・プロファイル!$A$1:$C$61</definedName>
     <definedName name="Z_E59549F1_184A_41A7_90D6_BEA0126A1220_.wvu.PrintArea" localSheetId="5" hidden="1">'テスト仕様_テスト結果(テスト・シナリオ1)'!$A$1:$I$30</definedName>
     <definedName name="Z_E59549F1_184A_41A7_90D6_BEA0126A1220_.wvu.PrintArea" localSheetId="6" hidden="1">'テスト仕様_テスト結果(テスト・シナリオ2)'!$A$1:$I$30</definedName>
     <definedName name="Z_E59549F1_184A_41A7_90D6_BEA0126A1220_.wvu.PrintArea" localSheetId="7" hidden="1">'テスト仕様_テスト結果(テスト・シナリオ3)'!$A$1:$I$29</definedName>
@@ -275,9 +294,10 @@
     <definedName name="Z_E59549F1_184A_41A7_90D6_BEA0126A1220_.wvu.PrintArea" localSheetId="9" hidden="1">'テスト仕様_テスト結果(テスト・シナリオ5)'!$A$1:$I$29</definedName>
     <definedName name="Z_E59549F1_184A_41A7_90D6_BEA0126A1220_.wvu.PrintArea" localSheetId="10" hidden="1">'テスト仕様_テスト結果(テスト・シナリオ6)'!$A$1:$I$28</definedName>
     <definedName name="Z_E59549F1_184A_41A7_90D6_BEA0126A1220_.wvu.PrintArea" localSheetId="11" hidden="1">'テスト仕様_テスト結果(テスト・シナリオ7)'!$A$1:$I$34</definedName>
+    <definedName name="Z_E59549F1_184A_41A7_90D6_BEA0126A1220_.wvu.PrintArea" localSheetId="12" hidden="1">'テスト仕様_テスト結果(テスト・シナリオ8)'!$A$1:$I$67</definedName>
     <definedName name="Z_E59549F1_184A_41A7_90D6_BEA0126A1220_.wvu.PrintArea" localSheetId="2" hidden="1">作成上の注意点!$A$1:$M$37</definedName>
     <definedName name="Z_E59549F1_184A_41A7_90D6_BEA0126A1220_.wvu.PrintArea" localSheetId="0" hidden="1">表紙!$A$1:$H$29</definedName>
-    <definedName name="Z_E59549F1_184A_41A7_90D6_BEA0126A1220_.wvu.PrintArea" localSheetId="1" hidden="1">文書管理!$A$1:$I$16</definedName>
+    <definedName name="Z_E59549F1_184A_41A7_90D6_BEA0126A1220_.wvu.PrintArea" localSheetId="1" hidden="1">文書管理!$A$1:$I$17</definedName>
     <definedName name="サンプル" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="サンプル" localSheetId="5" hidden="1">#REF!</definedName>
     <definedName name="サンプル" localSheetId="6" hidden="1">#REF!</definedName>
@@ -286,10 +306,11 @@
     <definedName name="サンプル" localSheetId="9" hidden="1">#REF!</definedName>
     <definedName name="サンプル" localSheetId="10" hidden="1">#REF!</definedName>
     <definedName name="サンプル" localSheetId="11" hidden="1">#REF!</definedName>
+    <definedName name="サンプル" localSheetId="12" hidden="1">#REF!</definedName>
     <definedName name="サンプル" localSheetId="2" hidden="1">#REF!</definedName>
-    <definedName name="サンプル" localSheetId="12" hidden="1">#REF!</definedName>
+    <definedName name="サンプル" localSheetId="13" hidden="1">#REF!</definedName>
     <definedName name="サンプル" localSheetId="1" hidden="1">#REF!</definedName>
-    <definedName name="サンプル" localSheetId="13" hidden="1">#REF!</definedName>
+    <definedName name="サンプル" localSheetId="14" hidden="1">#REF!</definedName>
     <definedName name="サンプル" hidden="1">#REF!</definedName>
     <definedName name="タスクドキュメント１" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="タスクドキュメント１" localSheetId="5" hidden="1">#REF!</definedName>
@@ -299,10 +320,11 @@
     <definedName name="タスクドキュメント１" localSheetId="9" hidden="1">#REF!</definedName>
     <definedName name="タスクドキュメント１" localSheetId="10" hidden="1">#REF!</definedName>
     <definedName name="タスクドキュメント１" localSheetId="11" hidden="1">#REF!</definedName>
+    <definedName name="タスクドキュメント１" localSheetId="12" hidden="1">#REF!</definedName>
     <definedName name="タスクドキュメント１" localSheetId="2" hidden="1">#REF!</definedName>
-    <definedName name="タスクドキュメント１" localSheetId="12" hidden="1">#REF!</definedName>
+    <definedName name="タスクドキュメント１" localSheetId="13" hidden="1">#REF!</definedName>
     <definedName name="タスクドキュメント１" localSheetId="1" hidden="1">#REF!</definedName>
-    <definedName name="タスクドキュメント１" localSheetId="13" hidden="1">#REF!</definedName>
+    <definedName name="タスクドキュメント１" localSheetId="14" hidden="1">#REF!</definedName>
     <definedName name="タスクドキュメント１" hidden="1">#REF!</definedName>
     <definedName name="関連表" localSheetId="3" hidden="1">#REF!</definedName>
     <definedName name="関連表" localSheetId="4" hidden="1">#REF!</definedName>
@@ -313,13 +335,14 @@
     <definedName name="関連表" localSheetId="9" hidden="1">#REF!</definedName>
     <definedName name="関連表" localSheetId="10" hidden="1">#REF!</definedName>
     <definedName name="関連表" localSheetId="11" hidden="1">#REF!</definedName>
+    <definedName name="関連表" localSheetId="12" hidden="1">#REF!</definedName>
     <definedName name="関連表" localSheetId="2" hidden="1">#REF!</definedName>
-    <definedName name="関連表" localSheetId="12" hidden="1">#REF!</definedName>
+    <definedName name="関連表" localSheetId="13" hidden="1">#REF!</definedName>
     <definedName name="関連表" localSheetId="1" hidden="1">#REF!</definedName>
-    <definedName name="関連表" localSheetId="13" hidden="1">#REF!</definedName>
+    <definedName name="関連表" localSheetId="14" hidden="1">#REF!</definedName>
     <definedName name="関連表" hidden="1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -329,7 +352,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="257">
   <si>
     <t>株式会社伊藤園</t>
     <phoneticPr fontId="5"/>
@@ -1424,17 +1447,605 @@
   <si>
     <t>Issue化</t>
   </si>
+  <si>
+    <t>Issue1.1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SCSK 細沼翔太</t>
+    <rPh sb="5" eb="9">
+      <t>ホソヌマショウタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E_本稼動_20218 対応</t>
+    <rPh sb="12" eb="14">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シナリオ8</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テスト・シナリオ8</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>8-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>T_TE030_CCD_012_実行結果出力_エビデンス（シナリオ8）.xlsx</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>仕様通りにジョブ出力結果を取得後のメッセージがログに出力される</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウドオ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>仕様通りに取得ファイル名のメッセージがログに出力される</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウドオ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>仕様通りにジョブ出力結果を取得前のメッセージがログに出力される</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウドオ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8-2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プロセスIDに[2574980]を指定して実行結果出力を起動する（トレースはオフ）。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>下記ディレクトリに3ファイルが出力されていること。
+/u02/oic/output/
+2574981_outputFiles.zip</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テスト・シナリオ8</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>938625</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ジョブ出力結果の取得処理が3回実行される</t>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>カイジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>120001</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>下記ディレクトリにファイルが出力されていないこと。
+/u02/oic/output/</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ジョブ出力結果の取得処理のデフォルトハンドラが起動している</t>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>仕様通りにデフォルトハンドラのエラー証跡ログが出力される</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウドオ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショウセキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>待機処理が起動し、10秒間待機している</t>
+    <rPh sb="0" eb="4">
+      <t>タイキショリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3回目のデフォルトハンドラ処理で、仕様通りに最大試行回数到達ログが出力されている</t>
+    <rPh sb="1" eb="3">
+      <t>カイメ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>シヨウドオ</t>
+    </rPh>
+    <rPh sb="22" eb="28">
+      <t>サイダイシコウカイスウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>トウタツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フォルト・ハンドラのデフォルトハンドラが起動している</t>
+    <rPh sb="20" eb="22">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>仕様通りにエラーメッセージログが出力される</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウドオ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リターンコードが2であること</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8-3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ファイル出力処理が3回実行される</t>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>カイジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ファイル出力処理のデフォルトハンドラが起動している</t>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8-4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8-1、8-3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8-2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8-4-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8-4-1-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2回目までデフォルトハンドラが起動してループし、3回目で処理を抜ける</t>
+    <rPh sb="1" eb="3">
+      <t>カイメ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カイメ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヌ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8-4-1-2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リターンコードが0であること</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プロセスIDに[2575667]を指定して実行結果出力を起動する（トレースはオフ）。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>取得できたプロセスID2回分、同様の処理が行われる。</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイブン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8-4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2575667</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2575676</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「ジョブ出力結果の取得処理」の箇所で呼ばれた「ExternalService」が、呼ばれた回数に応じて以下のステータスコードを返却する。
+1回目：502
+2回目：504
+3回目：200</t>
+    <rPh sb="15" eb="17">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>カイメ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>カイメ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「ファイル出力処理」の箇所で呼ばれた「ExternalService」が、呼ばれた回数に応じて以下のステータスコードを返却する。
+1回目：502
+2回目：504
+3回目：200</t>
+    <rPh sb="5" eb="7">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>カイメ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>カイメ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プロセスIDに[120001]を指定して実行結果出力を起動する（トレースはオフ）。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プロセスIDに[2574980]を指定して実行結果出力を起動する（トレースはオフ）。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【事前準備】
+OICのルックアップ「XXCCD_CONSTANT_SYSTEM_DEPENDENT」の「OUTPUT_FILEPATH_LOGS」の値を変更し、ファイルの書込み権限がないディレクトのパスを設定する。</t>
+    <rPh sb="1" eb="5">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SCSK細沼</t>
+    <rPh sb="4" eb="6">
+      <t>ホソヌマ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>左記のとおりであることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【事前準備】
+今回修正したバージョンのOIC統合のクローンをテスト用に作成する。
+クローンの「ジョブ出力結果の取得処理」「ファイル出力処理」呼出し部分をテスト用OIC統合「ExternalService」を呼び出すように変更する。
+再試行のループが呼出し処理ごとに初期化されて処理されていることを確認する。</t>
+    <rPh sb="1" eb="5">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>コンカイシュウセイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウゴウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="65" eb="69">
+      <t>シュツリョクショリ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ヨビダ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>トウゴウ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="116" eb="119">
+      <t>サイシコウ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ヨビダ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="132" eb="135">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>左記のとおりであることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>出力ファイルの中身が正常であること</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【E_本稼動_20218対応に伴ってケース追加】</t>
+    <rPh sb="15" eb="16">
+      <t>トモナ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OICエラーの再試行処理の実装に伴う実行の確認 E_本稼動_20218 対応</t>
+    <rPh sb="7" eb="10">
+      <t>サイシコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トモナ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="mmm\ dd\ yyyy"/>
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1620,6 +2231,14 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2269,7 +2888,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2601,6 +3220,14 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2642,6 +3269,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
       <color rgb="FFC0C0C0"/>
       <color rgb="FF0000FF"/>
     </mruColors>
@@ -8004,6 +8632,731 @@
         <a:xfrm>
           <a:off x="28575" y="29512260"/>
           <a:ext cx="3303270" cy="455295"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 他に添付するエビデンスなどがあれば</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>         記述します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="30680025"/>
+          <a:ext cx="7581900" cy="2663190"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.020作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト・シナリオ毎のテスト・ステップを記載して下さい。コンカレント・プログラムの場合は各プロセスの内部処理、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        画面の場合は各機能の内部処理で、結果が分岐しうる処理を網羅するようにして下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト内容」には、テスト・ステップ毎のテスト内容を記載して下さい。また、記載の上の注意は、以下を参照して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・処理が分岐しうる条件を、カラム名単位で詳細に記載して下さい。その際、カラム名は、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               検証のポイントとなるカラムを選択して記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>　                 例：○○フラグ＝'Y'によって抽出対象となる事を確認</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・データ取得ロジック(SELECT文)を確認する場合、SELECTできないケースも記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・１データを複数のテスト・ステップで使用する場合、以下の例を参考に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                   例：シナリオX-Xと同時検証</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト対象機能」には、「MD.050機能拡張に当っての機能設計書」（または「MD.070 機能拡張にあたっての</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        技術設計書」）で定義される「機能番号」および「機能名」を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 画面テストの際に画面から入力する値は、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: コンカレント、共通関数のテスト実施の際に使用するパラメータは、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>120015</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="33442275"/>
+          <a:ext cx="7581900" cy="2863215"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.070作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト結果表に単体テスト結果を記載する際には、次のガイドラインに従います。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            1）予想結果: 成否判定が可能な予想される結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                    例：○○フラグ＝'Y'により抽出対象となる、××IDが不一致のため更新対象外となる</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            2）実際の結果: 実際にテスト・ステップで定義された内容でテストを実施した際の、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               予想結果に対応する実際の結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            3）判定: 予想結果と実際の結果を比較し、テストの成否を判定した結果を以下の3つの記号で記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・○: テスト成功</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・×: テスト失敗</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・－: 対象外（前ステップでテストが失敗し、テストが実施できなかったような場合に使用します。）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            4）テスター: テスト実施者名を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            5）実施日: テスト実施日の年月日を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: パフォーマンス・テスト用のテスト・シナリオの場合、「予想結果」、「実際の結果」に処理時間を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 再テストの場合、行を挿入して再テスト結果を記載してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2447925</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>120015</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28575" y="29841825"/>
+          <a:ext cx="3400425" cy="462915"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -8203,6 +9556,239 @@
       <sheetName val="예금명세"/>
       <sheetName val="Interface_List"/>
       <sheetName val="抜け"/>
+      <sheetName val="OTSearchingReport1"/>
+      <sheetName val="BCP_状況"/>
+      <sheetName val="コンディション一覧(経理)"/>
+      <sheetName val="プロンプト一覧"/>
+      <sheetName val="#REF"/>
+      <sheetName val="納品対象外 セレクトデータ"/>
+      <sheetName val="サマリ"/>
+      <sheetName val="ＩＰアドレス定義"/>
+      <sheetName val="諸定義&amp;保守"/>
+      <sheetName val="調査シート"/>
+      <sheetName val="DATA"/>
+      <sheetName val="項目一覧"/>
+      <sheetName val="リスト（非表示）"/>
+      <sheetName val="貼り付け用"/>
+      <sheetName val="作業者→ロール"/>
+      <sheetName val="内部マスタテーブル"/>
+      <sheetName val="テーマ別"/>
+      <sheetName val="区分"/>
+      <sheetName val="☆管理項目定義"/>
+      <sheetName val="Package"/>
+      <sheetName val="Param"/>
+      <sheetName val="ロール一覧"/>
+      <sheetName val="リリース依頼書"/>
+      <sheetName val="選択肢"/>
+      <sheetName val="ＶＢＡ定義"/>
+      <sheetName val="TBL"/>
+      <sheetName val="入力リスト"/>
+      <sheetName val="プルダウンリスト"/>
+      <sheetName val="選択値"/>
+      <sheetName val="指定可能値"/>
+      <sheetName val="入力可能値"/>
+      <sheetName val="選択可能値"/>
+      <sheetName val="3.指定可能値"/>
+      <sheetName val="データリスト"/>
+      <sheetName val="コード値変換リスト(※編集不可)"/>
+      <sheetName val="items"/>
+      <sheetName val="１．InfoCube_(YKCH0010)案１"/>
+      <sheetName val="値リスト"/>
+      <sheetName val="現行DB一覧2(CT)"/>
+      <sheetName val="ＤＩＡＳ拡張ＰＪ　2013年"/>
+      <sheetName val="予算シート確認"/>
+      <sheetName val="原価要素"/>
+      <sheetName val="Cover_Cheet"/>
+      <sheetName val="WBS一覧"/>
+      <sheetName val="各社別課金"/>
+      <sheetName val="期首予算対比"/>
+      <sheetName val="入力規則(リスト)"/>
+      <sheetName val="Cover_Cheet (変更前)"/>
+      <sheetName val="Cover_Cheet（変更後）"/>
+      <sheetName val="領域マスタ"/>
+      <sheetName val="Cover_Cheet（実績＋落ち着き）"/>
+      <sheetName val="参考)日付関連"/>
+      <sheetName val="【編集禁止】MST"/>
+      <sheetName val="件数集計"/>
+      <sheetName val="2000"/>
+      <sheetName val="2001"/>
+      <sheetName val="Cover"/>
+      <sheetName val="Change History"/>
+      <sheetName val="UT-Core"/>
+      <sheetName val="Test Scenario"/>
+      <sheetName val="Execution Result(1-1)"/>
+      <sheetName val="Execution Result(1-2)"/>
+      <sheetName val="Execution Result(1-3)"/>
+      <sheetName val="Execution Result(1-4)"/>
+      <sheetName val="Execution Result(1-5)"/>
+      <sheetName val="Execution Result(1-6)"/>
+      <sheetName val="Execution Result(1-7)"/>
+      <sheetName val="Execution Result(1-8-1)"/>
+      <sheetName val="Execution Result(1-8-2)"/>
+      <sheetName val="Execution Result(1-9)"/>
+      <sheetName val="Execution Result(1-10)"/>
+      <sheetName val="Execution Result(1-11)"/>
+      <sheetName val="Execution Result(1-12-1)"/>
+      <sheetName val="Execution Result(1-12-2)"/>
+      <sheetName val="【2】変更履歴"/>
+      <sheetName val="407_408_409条件グループ234"/>
+      <sheetName val="特定業種区分"/>
+      <sheetName val="売上組織"/>
+      <sheetName val="凡例"/>
+      <sheetName val="Value"/>
+      <sheetName val="参照TBL)開発対象一覧"/>
+      <sheetName val="元ネタ"/>
+      <sheetName val="XXXX"/>
+      <sheetName val="0915"/>
+      <sheetName val="0926"/>
+      <sheetName val="0937"/>
+      <sheetName val="0974"/>
+      <sheetName val="0991"/>
+      <sheetName val="0992"/>
+      <sheetName val="１．InfoCube_(YKCH0010)_案２"/>
+      <sheetName val="Cover_Cheet_(変更前)"/>
+      <sheetName val="Status"/>
+      <sheetName val="Delete Prohibition"/>
+      <sheetName val="TechSpec"/>
+      <sheetName val="定義"/>
+      <sheetName val="参照指標"/>
+      <sheetName val="向先分類"/>
+      <sheetName val="1084_顧客グループ"/>
+      <sheetName val="設定"/>
+      <sheetName val="Resource"/>
+      <sheetName val="サイトコード・名"/>
+      <sheetName val="課題管理表"/>
+      <sheetName val="小数点の扱い"/>
+      <sheetName val="計算方法補足"/>
+      <sheetName val="課題集計"/>
+      <sheetName val="Promotion"/>
+      <sheetName val="Day master"/>
+      <sheetName val="Pricing tool"/>
+      <sheetName val="Category list"/>
+      <sheetName val="list_old"/>
+      <sheetName val="国コード"/>
+      <sheetName val="（参考）仕入先支払条件_支払方法"/>
+      <sheetName val="（参考）得意先支払条件_支払方法"/>
+      <sheetName val="（参考）銀行コード"/>
+      <sheetName val="（参照）連続番号&amp;支払期日シフトフラグ"/>
+      <sheetName val="（参考）国コード"/>
+      <sheetName val="Sheet4"/>
+      <sheetName val="MST"/>
+      <sheetName val="MKPF(4.6C)"/>
+      <sheetName val="１．InfoCube_(YKCH0010)案１1"/>
+      <sheetName val="１．InfoCube_(YKCH0010)_案２1"/>
+      <sheetName val="Estimator_Base"/>
+      <sheetName val="リスト_(2)"/>
+      <sheetName val="機能設計書_（内容説明）"/>
+      <sheetName val="Pattern_Definition"/>
+      <sheetName val="コード値(コード順)_"/>
+      <sheetName val="(Status_Definition)"/>
+      <sheetName val="納品対象外_セレクトデータ"/>
+      <sheetName val="3_指定可能値"/>
+      <sheetName val="Cover_Cheet_(変更前)1"/>
+      <sheetName val="Change_History"/>
+      <sheetName val="Test_Scenario"/>
+      <sheetName val="Execution_Result(1-1)"/>
+      <sheetName val="Execution_Result(1-2)"/>
+      <sheetName val="Execution_Result(1-3)"/>
+      <sheetName val="Execution_Result(1-4)"/>
+      <sheetName val="Execution_Result(1-5)"/>
+      <sheetName val="Execution_Result(1-6)"/>
+      <sheetName val="Execution_Result(1-7)"/>
+      <sheetName val="Execution_Result(1-8-1)"/>
+      <sheetName val="Execution_Result(1-8-2)"/>
+      <sheetName val="Execution_Result(1-9)"/>
+      <sheetName val="Execution_Result(1-10)"/>
+      <sheetName val="Execution_Result(1-11)"/>
+      <sheetName val="Execution_Result(1-12-1)"/>
+      <sheetName val="Execution_Result(1-12-2)"/>
+      <sheetName val="Delete_Prohibition"/>
+      <sheetName val="変更履歴"/>
+      <sheetName val="テストシナリオ"/>
+      <sheetName val="シナリオ共通テストデータ"/>
+      <sheetName val="実行結果(1)"/>
+      <sheetName val="実行結果(2)"/>
+      <sheetName val="実行結果(3)"/>
+      <sheetName val="実行結果(4)"/>
+      <sheetName val="実行結果(5)"/>
+      <sheetName val="実行結果(6)"/>
+      <sheetName val="実行結果(7)"/>
+      <sheetName val="実行結果(8)"/>
+      <sheetName val="実行結果(9)"/>
+      <sheetName val="UT-Tech"/>
+      <sheetName val="テストコンディション "/>
+      <sheetName val="テスト実行結果 1"/>
+      <sheetName val="テスト実行結果 2"/>
+      <sheetName val="テスト実行結果 3"/>
+      <sheetName val="テスト実行結果 4"/>
+      <sheetName val="テスト実行結果 5"/>
+      <sheetName val="テスト実行結果 6"/>
+      <sheetName val="実行結果_1"/>
+      <sheetName val="実行結果_2"/>
+      <sheetName val="実行結果 (3)"/>
+      <sheetName val="実行結果_3"/>
+      <sheetName val="実行結果_4"/>
+      <sheetName val="実行結果_5"/>
+      <sheetName val="実行結果_6"/>
+      <sheetName val="実行結果_7"/>
+      <sheetName val="変換表v1.03"/>
+      <sheetName val="リスト値（販物）"/>
+      <sheetName val="01．整備手順"/>
+      <sheetName val="リスト・ステータス"/>
+      <sheetName val="_list"/>
+      <sheetName val="伝票タイプリスト（経理メンテ）"/>
+      <sheetName val="通貨リスト（経理メンテ）"/>
+      <sheetName val="源泉徴収ＣＤリスト（経理メンテ）"/>
+      <sheetName val="支払条件、支払方法リスト"/>
+      <sheetName val="税リスト（経理メンテ）"/>
+      <sheetName val="利益センタ・原価センタリスト（経理メンテ）"/>
+      <sheetName val="cgtap90"/>
+      <sheetName val="改訂履歴"/>
+      <sheetName val="条件タイプ(産エネ)"/>
+      <sheetName val="createdb1"/>
+      <sheetName val="（ヘッダ）"/>
+      <sheetName val="エビデンス (5回目)"/>
+      <sheetName val="COVER PAGE"/>
+      <sheetName val="Test Condition Description"/>
+      <sheetName val="Doc History"/>
+      <sheetName val="Source (0件)"/>
+      <sheetName val="Result (0件)"/>
+      <sheetName val="Source (1件)"/>
+      <sheetName val="Target (1件)_ヘッダー"/>
+      <sheetName val="Target (1件)_データ"/>
+      <sheetName val="Result (1件)"/>
+      <sheetName val="Source (複数件)"/>
+      <sheetName val="Target (複数件)_ヘッダー"/>
+      <sheetName val="Target (複数件)_データ"/>
+      <sheetName val="Result (複数件)"/>
+      <sheetName val="Source (複数件2)"/>
+      <sheetName val="Target (複数件2)_ヘッダー"/>
+      <sheetName val="Target (複数件2)_データ"/>
+      <sheetName val="Result (複数件2)"/>
+      <sheetName val="Source (バリデーション)"/>
+      <sheetName val="Result (バリデーション)"/>
+      <sheetName val="Data Type Format"/>
+      <sheetName val="MTT Change History"/>
+      <sheetName val="SingleByte"/>
+      <sheetName val="DoubleByte"/>
+      <sheetName val="DCONFIG"/>
+      <sheetName val="SETUP_HIDDEN"/>
+      <sheetName val="参考(現行データからの抽出SQL)"/>
+      <sheetName val="実行結果(シナリオID-1)"/>
+      <sheetName val="実行結果(シナリオID-2"/>
+      <sheetName val="実行結果(シナリオID-3)"/>
+      <sheetName val="実行結果(シナリオID-4)"/>
+      <sheetName val="テストコンディション"/>
+      <sheetName val="実行結果"/>
+      <sheetName val="JP070814"/>
+      <sheetName val="勤務体系"/>
+      <sheetName val="改定履歴"/>
+      <sheetName val="区分値"/>
+      <sheetName val="承認票"/>
+      <sheetName val="使用する勘定一覧"/>
+      <sheetName val="menu"/>
+      <sheetName val="Naming"/>
+      <sheetName val="List box"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -8297,6 +9883,245 @@
       <sheetData sheetId="89" refreshError="1"/>
       <sheetData sheetId="90" refreshError="1"/>
       <sheetData sheetId="91" refreshError="1"/>
+      <sheetData sheetId="92" refreshError="1"/>
+      <sheetData sheetId="93" refreshError="1"/>
+      <sheetData sheetId="94" refreshError="1"/>
+      <sheetData sheetId="95" refreshError="1"/>
+      <sheetData sheetId="96" refreshError="1"/>
+      <sheetData sheetId="97" refreshError="1"/>
+      <sheetData sheetId="98" refreshError="1"/>
+      <sheetData sheetId="99" refreshError="1"/>
+      <sheetData sheetId="100" refreshError="1"/>
+      <sheetData sheetId="101" refreshError="1"/>
+      <sheetData sheetId="102" refreshError="1"/>
+      <sheetData sheetId="103" refreshError="1"/>
+      <sheetData sheetId="104" refreshError="1"/>
+      <sheetData sheetId="105" refreshError="1"/>
+      <sheetData sheetId="106" refreshError="1"/>
+      <sheetData sheetId="107" refreshError="1"/>
+      <sheetData sheetId="108" refreshError="1"/>
+      <sheetData sheetId="109" refreshError="1"/>
+      <sheetData sheetId="110" refreshError="1"/>
+      <sheetData sheetId="111" refreshError="1"/>
+      <sheetData sheetId="112" refreshError="1"/>
+      <sheetData sheetId="113" refreshError="1"/>
+      <sheetData sheetId="114" refreshError="1"/>
+      <sheetData sheetId="115" refreshError="1"/>
+      <sheetData sheetId="116" refreshError="1"/>
+      <sheetData sheetId="117" refreshError="1"/>
+      <sheetData sheetId="118" refreshError="1"/>
+      <sheetData sheetId="119" refreshError="1"/>
+      <sheetData sheetId="120" refreshError="1"/>
+      <sheetData sheetId="121" refreshError="1"/>
+      <sheetData sheetId="122" refreshError="1"/>
+      <sheetData sheetId="123" refreshError="1"/>
+      <sheetData sheetId="124" refreshError="1"/>
+      <sheetData sheetId="125" refreshError="1"/>
+      <sheetData sheetId="126" refreshError="1"/>
+      <sheetData sheetId="127" refreshError="1"/>
+      <sheetData sheetId="128" refreshError="1"/>
+      <sheetData sheetId="129" refreshError="1"/>
+      <sheetData sheetId="130" refreshError="1"/>
+      <sheetData sheetId="131" refreshError="1"/>
+      <sheetData sheetId="132" refreshError="1"/>
+      <sheetData sheetId="133" refreshError="1"/>
+      <sheetData sheetId="134" refreshError="1"/>
+      <sheetData sheetId="135" refreshError="1"/>
+      <sheetData sheetId="136" refreshError="1"/>
+      <sheetData sheetId="137" refreshError="1"/>
+      <sheetData sheetId="138" refreshError="1"/>
+      <sheetData sheetId="139" refreshError="1"/>
+      <sheetData sheetId="140" refreshError="1"/>
+      <sheetData sheetId="141" refreshError="1"/>
+      <sheetData sheetId="142" refreshError="1"/>
+      <sheetData sheetId="143" refreshError="1"/>
+      <sheetData sheetId="144" refreshError="1"/>
+      <sheetData sheetId="145" refreshError="1"/>
+      <sheetData sheetId="146" refreshError="1"/>
+      <sheetData sheetId="147" refreshError="1"/>
+      <sheetData sheetId="148" refreshError="1"/>
+      <sheetData sheetId="149" refreshError="1"/>
+      <sheetData sheetId="150" refreshError="1"/>
+      <sheetData sheetId="151" refreshError="1"/>
+      <sheetData sheetId="152" refreshError="1"/>
+      <sheetData sheetId="153" refreshError="1"/>
+      <sheetData sheetId="154" refreshError="1"/>
+      <sheetData sheetId="155" refreshError="1"/>
+      <sheetData sheetId="156" refreshError="1"/>
+      <sheetData sheetId="157" refreshError="1"/>
+      <sheetData sheetId="158" refreshError="1"/>
+      <sheetData sheetId="159" refreshError="1"/>
+      <sheetData sheetId="160" refreshError="1"/>
+      <sheetData sheetId="161" refreshError="1"/>
+      <sheetData sheetId="162" refreshError="1"/>
+      <sheetData sheetId="163" refreshError="1"/>
+      <sheetData sheetId="164" refreshError="1"/>
+      <sheetData sheetId="165" refreshError="1"/>
+      <sheetData sheetId="166" refreshError="1"/>
+      <sheetData sheetId="167" refreshError="1"/>
+      <sheetData sheetId="168" refreshError="1"/>
+      <sheetData sheetId="169" refreshError="1"/>
+      <sheetData sheetId="170" refreshError="1"/>
+      <sheetData sheetId="171" refreshError="1"/>
+      <sheetData sheetId="172" refreshError="1"/>
+      <sheetData sheetId="173" refreshError="1"/>
+      <sheetData sheetId="174" refreshError="1"/>
+      <sheetData sheetId="175" refreshError="1"/>
+      <sheetData sheetId="176" refreshError="1"/>
+      <sheetData sheetId="177" refreshError="1"/>
+      <sheetData sheetId="178" refreshError="1"/>
+      <sheetData sheetId="179" refreshError="1"/>
+      <sheetData sheetId="180" refreshError="1"/>
+      <sheetData sheetId="181" refreshError="1"/>
+      <sheetData sheetId="182" refreshError="1"/>
+      <sheetData sheetId="183" refreshError="1"/>
+      <sheetData sheetId="184" refreshError="1"/>
+      <sheetData sheetId="185" refreshError="1"/>
+      <sheetData sheetId="186" refreshError="1"/>
+      <sheetData sheetId="187" refreshError="1"/>
+      <sheetData sheetId="188" refreshError="1"/>
+      <sheetData sheetId="189" refreshError="1"/>
+      <sheetData sheetId="190" refreshError="1"/>
+      <sheetData sheetId="191" refreshError="1"/>
+      <sheetData sheetId="192" refreshError="1"/>
+      <sheetData sheetId="193" refreshError="1"/>
+      <sheetData sheetId="194" refreshError="1"/>
+      <sheetData sheetId="195" refreshError="1"/>
+      <sheetData sheetId="196" refreshError="1"/>
+      <sheetData sheetId="197" refreshError="1"/>
+      <sheetData sheetId="198" refreshError="1"/>
+      <sheetData sheetId="199" refreshError="1"/>
+      <sheetData sheetId="200" refreshError="1"/>
+      <sheetData sheetId="201" refreshError="1"/>
+      <sheetData sheetId="202" refreshError="1"/>
+      <sheetData sheetId="203" refreshError="1"/>
+      <sheetData sheetId="204" refreshError="1"/>
+      <sheetData sheetId="205" refreshError="1"/>
+      <sheetData sheetId="206" refreshError="1"/>
+      <sheetData sheetId="207" refreshError="1"/>
+      <sheetData sheetId="208" refreshError="1"/>
+      <sheetData sheetId="209" refreshError="1"/>
+      <sheetData sheetId="210" refreshError="1"/>
+      <sheetData sheetId="211"/>
+      <sheetData sheetId="212"/>
+      <sheetData sheetId="213"/>
+      <sheetData sheetId="214"/>
+      <sheetData sheetId="215"/>
+      <sheetData sheetId="216"/>
+      <sheetData sheetId="217"/>
+      <sheetData sheetId="218"/>
+      <sheetData sheetId="219"/>
+      <sheetData sheetId="220"/>
+      <sheetData sheetId="221"/>
+      <sheetData sheetId="222"/>
+      <sheetData sheetId="223"/>
+      <sheetData sheetId="224"/>
+      <sheetData sheetId="225"/>
+      <sheetData sheetId="226"/>
+      <sheetData sheetId="227"/>
+      <sheetData sheetId="228"/>
+      <sheetData sheetId="229"/>
+      <sheetData sheetId="230"/>
+      <sheetData sheetId="231"/>
+      <sheetData sheetId="232"/>
+      <sheetData sheetId="233"/>
+      <sheetData sheetId="234"/>
+      <sheetData sheetId="235"/>
+      <sheetData sheetId="236"/>
+      <sheetData sheetId="237"/>
+      <sheetData sheetId="238"/>
+      <sheetData sheetId="239"/>
+      <sheetData sheetId="240"/>
+      <sheetData sheetId="241"/>
+      <sheetData sheetId="242"/>
+      <sheetData sheetId="243"/>
+      <sheetData sheetId="244"/>
+      <sheetData sheetId="245"/>
+      <sheetData sheetId="246"/>
+      <sheetData sheetId="247"/>
+      <sheetData sheetId="248"/>
+      <sheetData sheetId="249"/>
+      <sheetData sheetId="250"/>
+      <sheetData sheetId="251"/>
+      <sheetData sheetId="252">
+        <row r="5">
+          <cell r="W5">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="253"/>
+      <sheetData sheetId="254"/>
+      <sheetData sheetId="255"/>
+      <sheetData sheetId="256"/>
+      <sheetData sheetId="257"/>
+      <sheetData sheetId="258"/>
+      <sheetData sheetId="259"/>
+      <sheetData sheetId="260"/>
+      <sheetData sheetId="261"/>
+      <sheetData sheetId="262"/>
+      <sheetData sheetId="263"/>
+      <sheetData sheetId="264"/>
+      <sheetData sheetId="265"/>
+      <sheetData sheetId="266"/>
+      <sheetData sheetId="267" refreshError="1"/>
+      <sheetData sheetId="268" refreshError="1"/>
+      <sheetData sheetId="269" refreshError="1"/>
+      <sheetData sheetId="270" refreshError="1"/>
+      <sheetData sheetId="271" refreshError="1"/>
+      <sheetData sheetId="272" refreshError="1"/>
+      <sheetData sheetId="273" refreshError="1"/>
+      <sheetData sheetId="274" refreshError="1"/>
+      <sheetData sheetId="275" refreshError="1"/>
+      <sheetData sheetId="276" refreshError="1"/>
+      <sheetData sheetId="277" refreshError="1"/>
+      <sheetData sheetId="278"/>
+      <sheetData sheetId="279"/>
+      <sheetData sheetId="280" refreshError="1"/>
+      <sheetData sheetId="281" refreshError="1"/>
+      <sheetData sheetId="282" refreshError="1"/>
+      <sheetData sheetId="283" refreshError="1"/>
+      <sheetData sheetId="284"/>
+      <sheetData sheetId="285"/>
+      <sheetData sheetId="286"/>
+      <sheetData sheetId="287"/>
+      <sheetData sheetId="288"/>
+      <sheetData sheetId="289"/>
+      <sheetData sheetId="290"/>
+      <sheetData sheetId="291"/>
+      <sheetData sheetId="292"/>
+      <sheetData sheetId="293"/>
+      <sheetData sheetId="294"/>
+      <sheetData sheetId="295"/>
+      <sheetData sheetId="296"/>
+      <sheetData sheetId="297"/>
+      <sheetData sheetId="298"/>
+      <sheetData sheetId="299"/>
+      <sheetData sheetId="300"/>
+      <sheetData sheetId="301"/>
+      <sheetData sheetId="302"/>
+      <sheetData sheetId="303"/>
+      <sheetData sheetId="304"/>
+      <sheetData sheetId="305"/>
+      <sheetData sheetId="306"/>
+      <sheetData sheetId="307"/>
+      <sheetData sheetId="308"/>
+      <sheetData sheetId="309"/>
+      <sheetData sheetId="310"/>
+      <sheetData sheetId="311"/>
+      <sheetData sheetId="312"/>
+      <sheetData sheetId="313"/>
+      <sheetData sheetId="314"/>
+      <sheetData sheetId="315"/>
+      <sheetData sheetId="316" refreshError="1"/>
+      <sheetData sheetId="317" refreshError="1"/>
+      <sheetData sheetId="318" refreshError="1"/>
+      <sheetData sheetId="319" refreshError="1"/>
+      <sheetData sheetId="320" refreshError="1"/>
+      <sheetData sheetId="321" refreshError="1"/>
+      <sheetData sheetId="322" refreshError="1"/>
+      <sheetData sheetId="323" refreshError="1"/>
+      <sheetData sheetId="324" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8960,6 +10785,7 @@
       <sheetName val="_ADFDI_BCMetadata"/>
       <sheetName val="_ADFDI_LOV"/>
       <sheetName val="Lookups"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -9707,6 +11533,7 @@
         </row>
       </sheetData>
       <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -9722,6 +11549,8 @@
       <sheetName val="_ADFDI_WorkbookData"/>
       <sheetName val="_ADFDI_BCMetadata"/>
       <sheetName val="_ADFDI_LOV"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="List Sources"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -9765,6 +11594,8 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10072,7 +11903,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="10.75" style="2" customWidth="1"/>
@@ -10397,7 +12228,7 @@
     <col min="16134" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="12" customHeight="1">
+    <row r="3" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -10405,7 +12236,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:8" ht="6" customHeight="1">
+    <row r="4" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -10414,7 +12245,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="21">
+    <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.15">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -10423,67 +12254,67 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1">
-      <c r="B6" s="121" t="s">
+    <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-    </row>
-    <row r="7" spans="2:8" ht="6" customHeight="1">
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+    </row>
+    <row r="7" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="2:8" ht="6" customHeight="1">
+    <row r="8" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B9" s="122" t="s">
+    <row r="9" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-    </row>
-    <row r="10" spans="2:8" ht="6" customHeight="1">
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+    </row>
+    <row r="10" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B11" s="122" t="s">
+    <row r="11" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-    </row>
-    <row r="12" spans="2:8" ht="6" customHeight="1"/>
-    <row r="13" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B13" s="122" t="s">
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+    </row>
+    <row r="12" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="126" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
@@ -10491,11 +12322,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="6" customHeight="1">
+    <row r="17" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B18" s="6" t="s">
         <v>2</v>
       </c>
@@ -10503,23 +12334,23 @@
         <v>44768</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="6" customHeight="1">
+    <row r="19" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>44981</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="6" customHeight="1">
+        <v>45589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B22" s="6" t="s">
         <v>74</v>
       </c>
@@ -10527,25 +12358,25 @@
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="6" customHeight="1">
+    <row r="23" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B26" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="12" customHeight="1">
+    <row r="28" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
@@ -10557,7 +12388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="12" customHeight="1">
+    <row r="29" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -10595,7 +12426,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="26" customWidth="1"/>
@@ -11175,7 +13006,7 @@
     <col min="16138" max="16384" width="8.875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -11186,35 +13017,35 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="32" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="24"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="36" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="102" t="s">
         <v>41</v>
       </c>
@@ -11240,7 +13071,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="63" t="s">
         <v>88</v>
@@ -11267,7 +13098,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="21">
+    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A12" s="37"/>
       <c r="B12" s="63"/>
       <c r="C12" s="56"/>
@@ -11288,7 +13119,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="21">
+    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B13" s="63"/>
       <c r="C13" s="56"/>
       <c r="D13" s="56"/>
@@ -11308,7 +13139,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="31.5">
+    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B14" s="63"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -11328,7 +13159,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="63"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -11348,7 +13179,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="63"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -11358,7 +13189,7 @@
       <c r="H16" s="46"/>
       <c r="I16" s="75"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="63"/>
       <c r="C17" s="51"/>
       <c r="D17" s="56"/>
@@ -11368,7 +13199,7 @@
       <c r="H17" s="46"/>
       <c r="I17" s="75"/>
     </row>
-    <row r="18" spans="1:9" ht="14.25" thickBot="1">
+    <row r="18" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="71"/>
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
@@ -11378,7 +13209,7 @@
       <c r="H18" s="47"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="34"/>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
@@ -11388,7 +13219,7 @@
       <c r="H19" s="34"/>
       <c r="I19" s="34"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="34"/>
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
@@ -11398,7 +13229,7 @@
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
     </row>
-    <row r="21" spans="1:9" ht="6" customHeight="1">
+    <row r="21" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -11408,7 +13239,7 @@
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
     </row>
-    <row r="22" spans="1:9" ht="14.25">
+    <row r="22" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="31" t="s">
         <v>49</v>
       </c>
@@ -11418,7 +13249,7 @@
       <c r="H22" s="34"/>
       <c r="I22" s="34"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="34"/>
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
@@ -11428,7 +13259,7 @@
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="38" t="s">
         <v>186</v>
       </c>
@@ -11440,7 +13271,7 @@
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="34"/>
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
@@ -11450,7 +13281,7 @@
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
@@ -11460,7 +13291,7 @@
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="34"/>
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
@@ -11470,7 +13301,7 @@
       <c r="H27" s="34"/>
       <c r="I27" s="34"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
       <c r="D28" s="34"/>
@@ -11506,7 +13337,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="26" customWidth="1"/>
@@ -12086,7 +13917,7 @@
     <col min="16138" max="16384" width="8.875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -12097,35 +13928,35 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="32" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="24"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="36" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="102" t="s">
         <v>41</v>
       </c>
@@ -12151,7 +13982,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="63" t="s">
         <v>89</v>
@@ -12178,7 +14009,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="21">
+    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A12" s="37"/>
       <c r="B12" s="63"/>
       <c r="C12" s="56"/>
@@ -12199,7 +14030,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="21">
+    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B13" s="63"/>
       <c r="C13" s="56"/>
       <c r="D13" s="56"/>
@@ -12219,7 +14050,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="31.5">
+    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B14" s="63"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -12239,7 +14070,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="63"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -12259,7 +14090,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="118"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -12269,7 +14100,7 @@
       <c r="H16" s="54"/>
       <c r="I16" s="75"/>
     </row>
-    <row r="17" spans="1:9" ht="14.25" thickBot="1">
+    <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="71"/>
       <c r="C17" s="47"/>
       <c r="D17" s="47"/>
@@ -12279,7 +14110,7 @@
       <c r="H17" s="47"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
@@ -12289,7 +14120,7 @@
       <c r="H18" s="34"/>
       <c r="I18" s="34"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="34"/>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
@@ -12299,7 +14130,7 @@
       <c r="H19" s="34"/>
       <c r="I19" s="34"/>
     </row>
-    <row r="20" spans="1:9" ht="6" customHeight="1">
+    <row r="20" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="27"/>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
@@ -12309,7 +14140,7 @@
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
     </row>
-    <row r="21" spans="1:9" ht="14.25">
+    <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="31" t="s">
         <v>49</v>
       </c>
@@ -12319,7 +14150,7 @@
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
@@ -12329,7 +14160,7 @@
       <c r="H22" s="34"/>
       <c r="I22" s="34"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="38" t="s">
         <v>186</v>
       </c>
@@ -12341,7 +14172,7 @@
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
@@ -12351,7 +14182,7 @@
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="34"/>
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
@@ -12361,7 +14192,7 @@
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
@@ -12371,7 +14202,7 @@
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="34"/>
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
@@ -12407,7 +14238,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="26" customWidth="1"/>
@@ -12987,7 +14818,7 @@
     <col min="16138" max="16384" width="8.875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -12998,35 +14829,35 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="32" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="24"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="36" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="102" t="s">
         <v>41</v>
       </c>
@@ -13052,7 +14883,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31.5">
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="63" t="s">
         <v>107</v>
@@ -13079,7 +14910,7 @@
         <v>44792</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="21">
+    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A12" s="37"/>
       <c r="B12" s="63"/>
       <c r="C12" s="56"/>
@@ -13100,7 +14931,7 @@
         <v>44792</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="21">
+    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B13" s="63"/>
       <c r="C13" s="56"/>
       <c r="D13" s="56"/>
@@ -13120,7 +14951,7 @@
         <v>44792</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="31.5">
+    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B14" s="63"/>
       <c r="C14" s="39"/>
       <c r="D14" s="56"/>
@@ -13140,7 +14971,7 @@
         <v>44792</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="63"/>
       <c r="C15" s="51"/>
       <c r="D15" s="56"/>
@@ -13160,7 +14991,7 @@
         <v>44792</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="21">
+    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B16" s="63"/>
       <c r="C16" s="51"/>
       <c r="D16" s="119"/>
@@ -13180,7 +15011,7 @@
         <v>44792</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="21">
+    <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B17" s="63"/>
       <c r="C17" s="51"/>
       <c r="D17" s="119"/>
@@ -13200,7 +15031,7 @@
         <v>44792</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="63"/>
       <c r="C18" s="51"/>
       <c r="D18" s="119"/>
@@ -13210,7 +15041,7 @@
       <c r="H18" s="54"/>
       <c r="I18" s="75"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="63"/>
       <c r="C19" s="51"/>
       <c r="D19" s="119"/>
@@ -13220,7 +15051,7 @@
       <c r="H19" s="54"/>
       <c r="I19" s="75"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="63"/>
       <c r="C20" s="51"/>
       <c r="D20" s="119"/>
@@ -13230,7 +15061,7 @@
       <c r="H20" s="54"/>
       <c r="I20" s="75"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="63"/>
       <c r="C21" s="51"/>
       <c r="D21" s="119"/>
@@ -13240,7 +15071,7 @@
       <c r="H21" s="54"/>
       <c r="I21" s="75"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="63"/>
       <c r="C22" s="51"/>
       <c r="D22" s="119"/>
@@ -13250,7 +15081,7 @@
       <c r="H22" s="54"/>
       <c r="I22" s="75"/>
     </row>
-    <row r="23" spans="1:9" ht="14.25" thickBot="1">
+    <row r="23" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B23" s="71"/>
       <c r="C23" s="47"/>
       <c r="D23" s="47"/>
@@ -13260,7 +15091,7 @@
       <c r="H23" s="47"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
@@ -13270,7 +15101,7 @@
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="34"/>
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
@@ -13280,7 +15111,7 @@
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
     </row>
-    <row r="26" spans="1:9" ht="6" customHeight="1">
+    <row r="26" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="27"/>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
@@ -13290,7 +15121,7 @@
       <c r="G26" s="34"/>
       <c r="H26" s="34"/>
     </row>
-    <row r="27" spans="1:9" ht="14.25">
+    <row r="27" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="31" t="s">
         <v>49</v>
       </c>
@@ -13300,7 +15131,7 @@
       <c r="H27" s="34"/>
       <c r="I27" s="34"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
       <c r="D28" s="34"/>
@@ -13310,7 +15141,7 @@
       <c r="H28" s="34"/>
       <c r="I28" s="34"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="38" t="s">
         <v>186</v>
       </c>
@@ -13322,7 +15153,7 @@
       <c r="H29" s="34"/>
       <c r="I29" s="34"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
       <c r="D30" s="34"/>
@@ -13332,7 +15163,7 @@
       <c r="H30" s="34"/>
       <c r="I30" s="34"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
@@ -13342,7 +15173,7 @@
       <c r="H31" s="34"/>
       <c r="I31" s="34"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
@@ -13352,7 +15183,7 @@
       <c r="H32" s="34"/>
       <c r="I32" s="34"/>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B33" s="34"/>
       <c r="C33" s="34"/>
       <c r="D33" s="34"/>
@@ -13378,11 +15209,1722 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I66"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="26" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="26" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="26" customWidth="1"/>
+    <col min="10" max="256" width="9" style="26"/>
+    <col min="257" max="257" width="3.125" style="26" customWidth="1"/>
+    <col min="258" max="258" width="9.75" style="26" customWidth="1"/>
+    <col min="259" max="259" width="40.125" style="26" customWidth="1"/>
+    <col min="260" max="260" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="261" max="262" width="21.625" style="26" customWidth="1"/>
+    <col min="263" max="263" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="10.125" style="26" customWidth="1"/>
+    <col min="265" max="265" width="11.625" style="26" customWidth="1"/>
+    <col min="266" max="512" width="9" style="26"/>
+    <col min="513" max="513" width="3.125" style="26" customWidth="1"/>
+    <col min="514" max="514" width="9.75" style="26" customWidth="1"/>
+    <col min="515" max="515" width="40.125" style="26" customWidth="1"/>
+    <col min="516" max="516" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="517" max="518" width="21.625" style="26" customWidth="1"/>
+    <col min="519" max="519" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="10.125" style="26" customWidth="1"/>
+    <col min="521" max="521" width="11.625" style="26" customWidth="1"/>
+    <col min="522" max="768" width="9" style="26"/>
+    <col min="769" max="769" width="3.125" style="26" customWidth="1"/>
+    <col min="770" max="770" width="9.75" style="26" customWidth="1"/>
+    <col min="771" max="771" width="40.125" style="26" customWidth="1"/>
+    <col min="772" max="772" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="773" max="774" width="21.625" style="26" customWidth="1"/>
+    <col min="775" max="775" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="10.125" style="26" customWidth="1"/>
+    <col min="777" max="777" width="11.625" style="26" customWidth="1"/>
+    <col min="778" max="1024" width="9" style="26"/>
+    <col min="1025" max="1025" width="3.125" style="26" customWidth="1"/>
+    <col min="1026" max="1026" width="9.75" style="26" customWidth="1"/>
+    <col min="1027" max="1027" width="40.125" style="26" customWidth="1"/>
+    <col min="1028" max="1028" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1030" width="21.625" style="26" customWidth="1"/>
+    <col min="1031" max="1031" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="10.125" style="26" customWidth="1"/>
+    <col min="1033" max="1033" width="11.625" style="26" customWidth="1"/>
+    <col min="1034" max="1280" width="9" style="26"/>
+    <col min="1281" max="1281" width="3.125" style="26" customWidth="1"/>
+    <col min="1282" max="1282" width="9.75" style="26" customWidth="1"/>
+    <col min="1283" max="1283" width="40.125" style="26" customWidth="1"/>
+    <col min="1284" max="1284" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1286" width="21.625" style="26" customWidth="1"/>
+    <col min="1287" max="1287" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="10.125" style="26" customWidth="1"/>
+    <col min="1289" max="1289" width="11.625" style="26" customWidth="1"/>
+    <col min="1290" max="1536" width="9" style="26"/>
+    <col min="1537" max="1537" width="3.125" style="26" customWidth="1"/>
+    <col min="1538" max="1538" width="9.75" style="26" customWidth="1"/>
+    <col min="1539" max="1539" width="40.125" style="26" customWidth="1"/>
+    <col min="1540" max="1540" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1542" width="21.625" style="26" customWidth="1"/>
+    <col min="1543" max="1543" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="10.125" style="26" customWidth="1"/>
+    <col min="1545" max="1545" width="11.625" style="26" customWidth="1"/>
+    <col min="1546" max="1792" width="9" style="26"/>
+    <col min="1793" max="1793" width="3.125" style="26" customWidth="1"/>
+    <col min="1794" max="1794" width="9.75" style="26" customWidth="1"/>
+    <col min="1795" max="1795" width="40.125" style="26" customWidth="1"/>
+    <col min="1796" max="1796" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1798" width="21.625" style="26" customWidth="1"/>
+    <col min="1799" max="1799" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="10.125" style="26" customWidth="1"/>
+    <col min="1801" max="1801" width="11.625" style="26" customWidth="1"/>
+    <col min="1802" max="2048" width="9" style="26"/>
+    <col min="2049" max="2049" width="3.125" style="26" customWidth="1"/>
+    <col min="2050" max="2050" width="9.75" style="26" customWidth="1"/>
+    <col min="2051" max="2051" width="40.125" style="26" customWidth="1"/>
+    <col min="2052" max="2052" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2054" width="21.625" style="26" customWidth="1"/>
+    <col min="2055" max="2055" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="10.125" style="26" customWidth="1"/>
+    <col min="2057" max="2057" width="11.625" style="26" customWidth="1"/>
+    <col min="2058" max="2304" width="9" style="26"/>
+    <col min="2305" max="2305" width="3.125" style="26" customWidth="1"/>
+    <col min="2306" max="2306" width="9.75" style="26" customWidth="1"/>
+    <col min="2307" max="2307" width="40.125" style="26" customWidth="1"/>
+    <col min="2308" max="2308" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2310" width="21.625" style="26" customWidth="1"/>
+    <col min="2311" max="2311" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="10.125" style="26" customWidth="1"/>
+    <col min="2313" max="2313" width="11.625" style="26" customWidth="1"/>
+    <col min="2314" max="2560" width="9" style="26"/>
+    <col min="2561" max="2561" width="3.125" style="26" customWidth="1"/>
+    <col min="2562" max="2562" width="9.75" style="26" customWidth="1"/>
+    <col min="2563" max="2563" width="40.125" style="26" customWidth="1"/>
+    <col min="2564" max="2564" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2566" width="21.625" style="26" customWidth="1"/>
+    <col min="2567" max="2567" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="10.125" style="26" customWidth="1"/>
+    <col min="2569" max="2569" width="11.625" style="26" customWidth="1"/>
+    <col min="2570" max="2816" width="9" style="26"/>
+    <col min="2817" max="2817" width="3.125" style="26" customWidth="1"/>
+    <col min="2818" max="2818" width="9.75" style="26" customWidth="1"/>
+    <col min="2819" max="2819" width="40.125" style="26" customWidth="1"/>
+    <col min="2820" max="2820" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2822" width="21.625" style="26" customWidth="1"/>
+    <col min="2823" max="2823" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="10.125" style="26" customWidth="1"/>
+    <col min="2825" max="2825" width="11.625" style="26" customWidth="1"/>
+    <col min="2826" max="3072" width="9" style="26"/>
+    <col min="3073" max="3073" width="3.125" style="26" customWidth="1"/>
+    <col min="3074" max="3074" width="9.75" style="26" customWidth="1"/>
+    <col min="3075" max="3075" width="40.125" style="26" customWidth="1"/>
+    <col min="3076" max="3076" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3078" width="21.625" style="26" customWidth="1"/>
+    <col min="3079" max="3079" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="10.125" style="26" customWidth="1"/>
+    <col min="3081" max="3081" width="11.625" style="26" customWidth="1"/>
+    <col min="3082" max="3328" width="9" style="26"/>
+    <col min="3329" max="3329" width="3.125" style="26" customWidth="1"/>
+    <col min="3330" max="3330" width="9.75" style="26" customWidth="1"/>
+    <col min="3331" max="3331" width="40.125" style="26" customWidth="1"/>
+    <col min="3332" max="3332" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3334" width="21.625" style="26" customWidth="1"/>
+    <col min="3335" max="3335" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="10.125" style="26" customWidth="1"/>
+    <col min="3337" max="3337" width="11.625" style="26" customWidth="1"/>
+    <col min="3338" max="3584" width="9" style="26"/>
+    <col min="3585" max="3585" width="3.125" style="26" customWidth="1"/>
+    <col min="3586" max="3586" width="9.75" style="26" customWidth="1"/>
+    <col min="3587" max="3587" width="40.125" style="26" customWidth="1"/>
+    <col min="3588" max="3588" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3590" width="21.625" style="26" customWidth="1"/>
+    <col min="3591" max="3591" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="10.125" style="26" customWidth="1"/>
+    <col min="3593" max="3593" width="11.625" style="26" customWidth="1"/>
+    <col min="3594" max="3840" width="9" style="26"/>
+    <col min="3841" max="3841" width="3.125" style="26" customWidth="1"/>
+    <col min="3842" max="3842" width="9.75" style="26" customWidth="1"/>
+    <col min="3843" max="3843" width="40.125" style="26" customWidth="1"/>
+    <col min="3844" max="3844" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3846" width="21.625" style="26" customWidth="1"/>
+    <col min="3847" max="3847" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="10.125" style="26" customWidth="1"/>
+    <col min="3849" max="3849" width="11.625" style="26" customWidth="1"/>
+    <col min="3850" max="4096" width="9" style="26"/>
+    <col min="4097" max="4097" width="3.125" style="26" customWidth="1"/>
+    <col min="4098" max="4098" width="9.75" style="26" customWidth="1"/>
+    <col min="4099" max="4099" width="40.125" style="26" customWidth="1"/>
+    <col min="4100" max="4100" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4102" width="21.625" style="26" customWidth="1"/>
+    <col min="4103" max="4103" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="10.125" style="26" customWidth="1"/>
+    <col min="4105" max="4105" width="11.625" style="26" customWidth="1"/>
+    <col min="4106" max="4352" width="9" style="26"/>
+    <col min="4353" max="4353" width="3.125" style="26" customWidth="1"/>
+    <col min="4354" max="4354" width="9.75" style="26" customWidth="1"/>
+    <col min="4355" max="4355" width="40.125" style="26" customWidth="1"/>
+    <col min="4356" max="4356" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4358" width="21.625" style="26" customWidth="1"/>
+    <col min="4359" max="4359" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="10.125" style="26" customWidth="1"/>
+    <col min="4361" max="4361" width="11.625" style="26" customWidth="1"/>
+    <col min="4362" max="4608" width="9" style="26"/>
+    <col min="4609" max="4609" width="3.125" style="26" customWidth="1"/>
+    <col min="4610" max="4610" width="9.75" style="26" customWidth="1"/>
+    <col min="4611" max="4611" width="40.125" style="26" customWidth="1"/>
+    <col min="4612" max="4612" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4614" width="21.625" style="26" customWidth="1"/>
+    <col min="4615" max="4615" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="10.125" style="26" customWidth="1"/>
+    <col min="4617" max="4617" width="11.625" style="26" customWidth="1"/>
+    <col min="4618" max="4864" width="9" style="26"/>
+    <col min="4865" max="4865" width="3.125" style="26" customWidth="1"/>
+    <col min="4866" max="4866" width="9.75" style="26" customWidth="1"/>
+    <col min="4867" max="4867" width="40.125" style="26" customWidth="1"/>
+    <col min="4868" max="4868" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4870" width="21.625" style="26" customWidth="1"/>
+    <col min="4871" max="4871" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="10.125" style="26" customWidth="1"/>
+    <col min="4873" max="4873" width="11.625" style="26" customWidth="1"/>
+    <col min="4874" max="5120" width="9" style="26"/>
+    <col min="5121" max="5121" width="3.125" style="26" customWidth="1"/>
+    <col min="5122" max="5122" width="9.75" style="26" customWidth="1"/>
+    <col min="5123" max="5123" width="40.125" style="26" customWidth="1"/>
+    <col min="5124" max="5124" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5126" width="21.625" style="26" customWidth="1"/>
+    <col min="5127" max="5127" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="10.125" style="26" customWidth="1"/>
+    <col min="5129" max="5129" width="11.625" style="26" customWidth="1"/>
+    <col min="5130" max="5376" width="9" style="26"/>
+    <col min="5377" max="5377" width="3.125" style="26" customWidth="1"/>
+    <col min="5378" max="5378" width="9.75" style="26" customWidth="1"/>
+    <col min="5379" max="5379" width="40.125" style="26" customWidth="1"/>
+    <col min="5380" max="5380" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5382" width="21.625" style="26" customWidth="1"/>
+    <col min="5383" max="5383" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="10.125" style="26" customWidth="1"/>
+    <col min="5385" max="5385" width="11.625" style="26" customWidth="1"/>
+    <col min="5386" max="5632" width="9" style="26"/>
+    <col min="5633" max="5633" width="3.125" style="26" customWidth="1"/>
+    <col min="5634" max="5634" width="9.75" style="26" customWidth="1"/>
+    <col min="5635" max="5635" width="40.125" style="26" customWidth="1"/>
+    <col min="5636" max="5636" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5638" width="21.625" style="26" customWidth="1"/>
+    <col min="5639" max="5639" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="10.125" style="26" customWidth="1"/>
+    <col min="5641" max="5641" width="11.625" style="26" customWidth="1"/>
+    <col min="5642" max="5888" width="9" style="26"/>
+    <col min="5889" max="5889" width="3.125" style="26" customWidth="1"/>
+    <col min="5890" max="5890" width="9.75" style="26" customWidth="1"/>
+    <col min="5891" max="5891" width="40.125" style="26" customWidth="1"/>
+    <col min="5892" max="5892" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5894" width="21.625" style="26" customWidth="1"/>
+    <col min="5895" max="5895" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="10.125" style="26" customWidth="1"/>
+    <col min="5897" max="5897" width="11.625" style="26" customWidth="1"/>
+    <col min="5898" max="6144" width="9" style="26"/>
+    <col min="6145" max="6145" width="3.125" style="26" customWidth="1"/>
+    <col min="6146" max="6146" width="9.75" style="26" customWidth="1"/>
+    <col min="6147" max="6147" width="40.125" style="26" customWidth="1"/>
+    <col min="6148" max="6148" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6150" width="21.625" style="26" customWidth="1"/>
+    <col min="6151" max="6151" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="10.125" style="26" customWidth="1"/>
+    <col min="6153" max="6153" width="11.625" style="26" customWidth="1"/>
+    <col min="6154" max="6400" width="9" style="26"/>
+    <col min="6401" max="6401" width="3.125" style="26" customWidth="1"/>
+    <col min="6402" max="6402" width="9.75" style="26" customWidth="1"/>
+    <col min="6403" max="6403" width="40.125" style="26" customWidth="1"/>
+    <col min="6404" max="6404" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6406" width="21.625" style="26" customWidth="1"/>
+    <col min="6407" max="6407" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="10.125" style="26" customWidth="1"/>
+    <col min="6409" max="6409" width="11.625" style="26" customWidth="1"/>
+    <col min="6410" max="6656" width="9" style="26"/>
+    <col min="6657" max="6657" width="3.125" style="26" customWidth="1"/>
+    <col min="6658" max="6658" width="9.75" style="26" customWidth="1"/>
+    <col min="6659" max="6659" width="40.125" style="26" customWidth="1"/>
+    <col min="6660" max="6660" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6662" width="21.625" style="26" customWidth="1"/>
+    <col min="6663" max="6663" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="10.125" style="26" customWidth="1"/>
+    <col min="6665" max="6665" width="11.625" style="26" customWidth="1"/>
+    <col min="6666" max="6912" width="9" style="26"/>
+    <col min="6913" max="6913" width="3.125" style="26" customWidth="1"/>
+    <col min="6914" max="6914" width="9.75" style="26" customWidth="1"/>
+    <col min="6915" max="6915" width="40.125" style="26" customWidth="1"/>
+    <col min="6916" max="6916" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6918" width="21.625" style="26" customWidth="1"/>
+    <col min="6919" max="6919" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="10.125" style="26" customWidth="1"/>
+    <col min="6921" max="6921" width="11.625" style="26" customWidth="1"/>
+    <col min="6922" max="7168" width="9" style="26"/>
+    <col min="7169" max="7169" width="3.125" style="26" customWidth="1"/>
+    <col min="7170" max="7170" width="9.75" style="26" customWidth="1"/>
+    <col min="7171" max="7171" width="40.125" style="26" customWidth="1"/>
+    <col min="7172" max="7172" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7174" width="21.625" style="26" customWidth="1"/>
+    <col min="7175" max="7175" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="10.125" style="26" customWidth="1"/>
+    <col min="7177" max="7177" width="11.625" style="26" customWidth="1"/>
+    <col min="7178" max="7424" width="9" style="26"/>
+    <col min="7425" max="7425" width="3.125" style="26" customWidth="1"/>
+    <col min="7426" max="7426" width="9.75" style="26" customWidth="1"/>
+    <col min="7427" max="7427" width="40.125" style="26" customWidth="1"/>
+    <col min="7428" max="7428" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7430" width="21.625" style="26" customWidth="1"/>
+    <col min="7431" max="7431" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="10.125" style="26" customWidth="1"/>
+    <col min="7433" max="7433" width="11.625" style="26" customWidth="1"/>
+    <col min="7434" max="7680" width="9" style="26"/>
+    <col min="7681" max="7681" width="3.125" style="26" customWidth="1"/>
+    <col min="7682" max="7682" width="9.75" style="26" customWidth="1"/>
+    <col min="7683" max="7683" width="40.125" style="26" customWidth="1"/>
+    <col min="7684" max="7684" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7686" width="21.625" style="26" customWidth="1"/>
+    <col min="7687" max="7687" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="10.125" style="26" customWidth="1"/>
+    <col min="7689" max="7689" width="11.625" style="26" customWidth="1"/>
+    <col min="7690" max="7936" width="9" style="26"/>
+    <col min="7937" max="7937" width="3.125" style="26" customWidth="1"/>
+    <col min="7938" max="7938" width="9.75" style="26" customWidth="1"/>
+    <col min="7939" max="7939" width="40.125" style="26" customWidth="1"/>
+    <col min="7940" max="7940" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7942" width="21.625" style="26" customWidth="1"/>
+    <col min="7943" max="7943" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="10.125" style="26" customWidth="1"/>
+    <col min="7945" max="7945" width="11.625" style="26" customWidth="1"/>
+    <col min="7946" max="8192" width="9" style="26"/>
+    <col min="8193" max="8193" width="3.125" style="26" customWidth="1"/>
+    <col min="8194" max="8194" width="9.75" style="26" customWidth="1"/>
+    <col min="8195" max="8195" width="40.125" style="26" customWidth="1"/>
+    <col min="8196" max="8196" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8198" width="21.625" style="26" customWidth="1"/>
+    <col min="8199" max="8199" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="10.125" style="26" customWidth="1"/>
+    <col min="8201" max="8201" width="11.625" style="26" customWidth="1"/>
+    <col min="8202" max="8448" width="9" style="26"/>
+    <col min="8449" max="8449" width="3.125" style="26" customWidth="1"/>
+    <col min="8450" max="8450" width="9.75" style="26" customWidth="1"/>
+    <col min="8451" max="8451" width="40.125" style="26" customWidth="1"/>
+    <col min="8452" max="8452" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8454" width="21.625" style="26" customWidth="1"/>
+    <col min="8455" max="8455" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="10.125" style="26" customWidth="1"/>
+    <col min="8457" max="8457" width="11.625" style="26" customWidth="1"/>
+    <col min="8458" max="8704" width="9" style="26"/>
+    <col min="8705" max="8705" width="3.125" style="26" customWidth="1"/>
+    <col min="8706" max="8706" width="9.75" style="26" customWidth="1"/>
+    <col min="8707" max="8707" width="40.125" style="26" customWidth="1"/>
+    <col min="8708" max="8708" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8710" width="21.625" style="26" customWidth="1"/>
+    <col min="8711" max="8711" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="10.125" style="26" customWidth="1"/>
+    <col min="8713" max="8713" width="11.625" style="26" customWidth="1"/>
+    <col min="8714" max="8960" width="9" style="26"/>
+    <col min="8961" max="8961" width="3.125" style="26" customWidth="1"/>
+    <col min="8962" max="8962" width="9.75" style="26" customWidth="1"/>
+    <col min="8963" max="8963" width="40.125" style="26" customWidth="1"/>
+    <col min="8964" max="8964" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8966" width="21.625" style="26" customWidth="1"/>
+    <col min="8967" max="8967" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="10.125" style="26" customWidth="1"/>
+    <col min="8969" max="8969" width="11.625" style="26" customWidth="1"/>
+    <col min="8970" max="9216" width="9" style="26"/>
+    <col min="9217" max="9217" width="3.125" style="26" customWidth="1"/>
+    <col min="9218" max="9218" width="9.75" style="26" customWidth="1"/>
+    <col min="9219" max="9219" width="40.125" style="26" customWidth="1"/>
+    <col min="9220" max="9220" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9222" width="21.625" style="26" customWidth="1"/>
+    <col min="9223" max="9223" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="10.125" style="26" customWidth="1"/>
+    <col min="9225" max="9225" width="11.625" style="26" customWidth="1"/>
+    <col min="9226" max="9472" width="9" style="26"/>
+    <col min="9473" max="9473" width="3.125" style="26" customWidth="1"/>
+    <col min="9474" max="9474" width="9.75" style="26" customWidth="1"/>
+    <col min="9475" max="9475" width="40.125" style="26" customWidth="1"/>
+    <col min="9476" max="9476" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9478" width="21.625" style="26" customWidth="1"/>
+    <col min="9479" max="9479" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="10.125" style="26" customWidth="1"/>
+    <col min="9481" max="9481" width="11.625" style="26" customWidth="1"/>
+    <col min="9482" max="9728" width="9" style="26"/>
+    <col min="9729" max="9729" width="3.125" style="26" customWidth="1"/>
+    <col min="9730" max="9730" width="9.75" style="26" customWidth="1"/>
+    <col min="9731" max="9731" width="40.125" style="26" customWidth="1"/>
+    <col min="9732" max="9732" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9734" width="21.625" style="26" customWidth="1"/>
+    <col min="9735" max="9735" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="10.125" style="26" customWidth="1"/>
+    <col min="9737" max="9737" width="11.625" style="26" customWidth="1"/>
+    <col min="9738" max="9984" width="9" style="26"/>
+    <col min="9985" max="9985" width="3.125" style="26" customWidth="1"/>
+    <col min="9986" max="9986" width="9.75" style="26" customWidth="1"/>
+    <col min="9987" max="9987" width="40.125" style="26" customWidth="1"/>
+    <col min="9988" max="9988" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9990" width="21.625" style="26" customWidth="1"/>
+    <col min="9991" max="9991" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="10.125" style="26" customWidth="1"/>
+    <col min="9993" max="9993" width="11.625" style="26" customWidth="1"/>
+    <col min="9994" max="10240" width="9" style="26"/>
+    <col min="10241" max="10241" width="3.125" style="26" customWidth="1"/>
+    <col min="10242" max="10242" width="9.75" style="26" customWidth="1"/>
+    <col min="10243" max="10243" width="40.125" style="26" customWidth="1"/>
+    <col min="10244" max="10244" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10246" width="21.625" style="26" customWidth="1"/>
+    <col min="10247" max="10247" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="10.125" style="26" customWidth="1"/>
+    <col min="10249" max="10249" width="11.625" style="26" customWidth="1"/>
+    <col min="10250" max="10496" width="9" style="26"/>
+    <col min="10497" max="10497" width="3.125" style="26" customWidth="1"/>
+    <col min="10498" max="10498" width="9.75" style="26" customWidth="1"/>
+    <col min="10499" max="10499" width="40.125" style="26" customWidth="1"/>
+    <col min="10500" max="10500" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10502" width="21.625" style="26" customWidth="1"/>
+    <col min="10503" max="10503" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="10.125" style="26" customWidth="1"/>
+    <col min="10505" max="10505" width="11.625" style="26" customWidth="1"/>
+    <col min="10506" max="10752" width="9" style="26"/>
+    <col min="10753" max="10753" width="3.125" style="26" customWidth="1"/>
+    <col min="10754" max="10754" width="9.75" style="26" customWidth="1"/>
+    <col min="10755" max="10755" width="40.125" style="26" customWidth="1"/>
+    <col min="10756" max="10756" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10758" width="21.625" style="26" customWidth="1"/>
+    <col min="10759" max="10759" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="10.125" style="26" customWidth="1"/>
+    <col min="10761" max="10761" width="11.625" style="26" customWidth="1"/>
+    <col min="10762" max="11008" width="9" style="26"/>
+    <col min="11009" max="11009" width="3.125" style="26" customWidth="1"/>
+    <col min="11010" max="11010" width="9.75" style="26" customWidth="1"/>
+    <col min="11011" max="11011" width="40.125" style="26" customWidth="1"/>
+    <col min="11012" max="11012" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11014" width="21.625" style="26" customWidth="1"/>
+    <col min="11015" max="11015" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="10.125" style="26" customWidth="1"/>
+    <col min="11017" max="11017" width="11.625" style="26" customWidth="1"/>
+    <col min="11018" max="11264" width="9" style="26"/>
+    <col min="11265" max="11265" width="3.125" style="26" customWidth="1"/>
+    <col min="11266" max="11266" width="9.75" style="26" customWidth="1"/>
+    <col min="11267" max="11267" width="40.125" style="26" customWidth="1"/>
+    <col min="11268" max="11268" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11270" width="21.625" style="26" customWidth="1"/>
+    <col min="11271" max="11271" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="10.125" style="26" customWidth="1"/>
+    <col min="11273" max="11273" width="11.625" style="26" customWidth="1"/>
+    <col min="11274" max="11520" width="9" style="26"/>
+    <col min="11521" max="11521" width="3.125" style="26" customWidth="1"/>
+    <col min="11522" max="11522" width="9.75" style="26" customWidth="1"/>
+    <col min="11523" max="11523" width="40.125" style="26" customWidth="1"/>
+    <col min="11524" max="11524" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11526" width="21.625" style="26" customWidth="1"/>
+    <col min="11527" max="11527" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="10.125" style="26" customWidth="1"/>
+    <col min="11529" max="11529" width="11.625" style="26" customWidth="1"/>
+    <col min="11530" max="11776" width="9" style="26"/>
+    <col min="11777" max="11777" width="3.125" style="26" customWidth="1"/>
+    <col min="11778" max="11778" width="9.75" style="26" customWidth="1"/>
+    <col min="11779" max="11779" width="40.125" style="26" customWidth="1"/>
+    <col min="11780" max="11780" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11782" width="21.625" style="26" customWidth="1"/>
+    <col min="11783" max="11783" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="10.125" style="26" customWidth="1"/>
+    <col min="11785" max="11785" width="11.625" style="26" customWidth="1"/>
+    <col min="11786" max="12032" width="9" style="26"/>
+    <col min="12033" max="12033" width="3.125" style="26" customWidth="1"/>
+    <col min="12034" max="12034" width="9.75" style="26" customWidth="1"/>
+    <col min="12035" max="12035" width="40.125" style="26" customWidth="1"/>
+    <col min="12036" max="12036" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12038" width="21.625" style="26" customWidth="1"/>
+    <col min="12039" max="12039" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="10.125" style="26" customWidth="1"/>
+    <col min="12041" max="12041" width="11.625" style="26" customWidth="1"/>
+    <col min="12042" max="12288" width="9" style="26"/>
+    <col min="12289" max="12289" width="3.125" style="26" customWidth="1"/>
+    <col min="12290" max="12290" width="9.75" style="26" customWidth="1"/>
+    <col min="12291" max="12291" width="40.125" style="26" customWidth="1"/>
+    <col min="12292" max="12292" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12294" width="21.625" style="26" customWidth="1"/>
+    <col min="12295" max="12295" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="10.125" style="26" customWidth="1"/>
+    <col min="12297" max="12297" width="11.625" style="26" customWidth="1"/>
+    <col min="12298" max="12544" width="9" style="26"/>
+    <col min="12545" max="12545" width="3.125" style="26" customWidth="1"/>
+    <col min="12546" max="12546" width="9.75" style="26" customWidth="1"/>
+    <col min="12547" max="12547" width="40.125" style="26" customWidth="1"/>
+    <col min="12548" max="12548" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12550" width="21.625" style="26" customWidth="1"/>
+    <col min="12551" max="12551" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="10.125" style="26" customWidth="1"/>
+    <col min="12553" max="12553" width="11.625" style="26" customWidth="1"/>
+    <col min="12554" max="12800" width="9" style="26"/>
+    <col min="12801" max="12801" width="3.125" style="26" customWidth="1"/>
+    <col min="12802" max="12802" width="9.75" style="26" customWidth="1"/>
+    <col min="12803" max="12803" width="40.125" style="26" customWidth="1"/>
+    <col min="12804" max="12804" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12806" width="21.625" style="26" customWidth="1"/>
+    <col min="12807" max="12807" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="10.125" style="26" customWidth="1"/>
+    <col min="12809" max="12809" width="11.625" style="26" customWidth="1"/>
+    <col min="12810" max="13056" width="9" style="26"/>
+    <col min="13057" max="13057" width="3.125" style="26" customWidth="1"/>
+    <col min="13058" max="13058" width="9.75" style="26" customWidth="1"/>
+    <col min="13059" max="13059" width="40.125" style="26" customWidth="1"/>
+    <col min="13060" max="13060" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13062" width="21.625" style="26" customWidth="1"/>
+    <col min="13063" max="13063" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="10.125" style="26" customWidth="1"/>
+    <col min="13065" max="13065" width="11.625" style="26" customWidth="1"/>
+    <col min="13066" max="13312" width="9" style="26"/>
+    <col min="13313" max="13313" width="3.125" style="26" customWidth="1"/>
+    <col min="13314" max="13314" width="9.75" style="26" customWidth="1"/>
+    <col min="13315" max="13315" width="40.125" style="26" customWidth="1"/>
+    <col min="13316" max="13316" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13318" width="21.625" style="26" customWidth="1"/>
+    <col min="13319" max="13319" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="10.125" style="26" customWidth="1"/>
+    <col min="13321" max="13321" width="11.625" style="26" customWidth="1"/>
+    <col min="13322" max="13568" width="9" style="26"/>
+    <col min="13569" max="13569" width="3.125" style="26" customWidth="1"/>
+    <col min="13570" max="13570" width="9.75" style="26" customWidth="1"/>
+    <col min="13571" max="13571" width="40.125" style="26" customWidth="1"/>
+    <col min="13572" max="13572" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13574" width="21.625" style="26" customWidth="1"/>
+    <col min="13575" max="13575" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="10.125" style="26" customWidth="1"/>
+    <col min="13577" max="13577" width="11.625" style="26" customWidth="1"/>
+    <col min="13578" max="13824" width="9" style="26"/>
+    <col min="13825" max="13825" width="3.125" style="26" customWidth="1"/>
+    <col min="13826" max="13826" width="9.75" style="26" customWidth="1"/>
+    <col min="13827" max="13827" width="40.125" style="26" customWidth="1"/>
+    <col min="13828" max="13828" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13830" width="21.625" style="26" customWidth="1"/>
+    <col min="13831" max="13831" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="10.125" style="26" customWidth="1"/>
+    <col min="13833" max="13833" width="11.625" style="26" customWidth="1"/>
+    <col min="13834" max="14080" width="9" style="26"/>
+    <col min="14081" max="14081" width="3.125" style="26" customWidth="1"/>
+    <col min="14082" max="14082" width="9.75" style="26" customWidth="1"/>
+    <col min="14083" max="14083" width="40.125" style="26" customWidth="1"/>
+    <col min="14084" max="14084" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14086" width="21.625" style="26" customWidth="1"/>
+    <col min="14087" max="14087" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="10.125" style="26" customWidth="1"/>
+    <col min="14089" max="14089" width="11.625" style="26" customWidth="1"/>
+    <col min="14090" max="14336" width="9" style="26"/>
+    <col min="14337" max="14337" width="3.125" style="26" customWidth="1"/>
+    <col min="14338" max="14338" width="9.75" style="26" customWidth="1"/>
+    <col min="14339" max="14339" width="40.125" style="26" customWidth="1"/>
+    <col min="14340" max="14340" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14342" width="21.625" style="26" customWidth="1"/>
+    <col min="14343" max="14343" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="10.125" style="26" customWidth="1"/>
+    <col min="14345" max="14345" width="11.625" style="26" customWidth="1"/>
+    <col min="14346" max="14592" width="9" style="26"/>
+    <col min="14593" max="14593" width="3.125" style="26" customWidth="1"/>
+    <col min="14594" max="14594" width="9.75" style="26" customWidth="1"/>
+    <col min="14595" max="14595" width="40.125" style="26" customWidth="1"/>
+    <col min="14596" max="14596" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14598" width="21.625" style="26" customWidth="1"/>
+    <col min="14599" max="14599" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="10.125" style="26" customWidth="1"/>
+    <col min="14601" max="14601" width="11.625" style="26" customWidth="1"/>
+    <col min="14602" max="14848" width="9" style="26"/>
+    <col min="14849" max="14849" width="3.125" style="26" customWidth="1"/>
+    <col min="14850" max="14850" width="9.75" style="26" customWidth="1"/>
+    <col min="14851" max="14851" width="40.125" style="26" customWidth="1"/>
+    <col min="14852" max="14852" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14854" width="21.625" style="26" customWidth="1"/>
+    <col min="14855" max="14855" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="10.125" style="26" customWidth="1"/>
+    <col min="14857" max="14857" width="11.625" style="26" customWidth="1"/>
+    <col min="14858" max="15104" width="9" style="26"/>
+    <col min="15105" max="15105" width="3.125" style="26" customWidth="1"/>
+    <col min="15106" max="15106" width="9.75" style="26" customWidth="1"/>
+    <col min="15107" max="15107" width="40.125" style="26" customWidth="1"/>
+    <col min="15108" max="15108" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15110" width="21.625" style="26" customWidth="1"/>
+    <col min="15111" max="15111" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="10.125" style="26" customWidth="1"/>
+    <col min="15113" max="15113" width="11.625" style="26" customWidth="1"/>
+    <col min="15114" max="15360" width="9" style="26"/>
+    <col min="15361" max="15361" width="3.125" style="26" customWidth="1"/>
+    <col min="15362" max="15362" width="9.75" style="26" customWidth="1"/>
+    <col min="15363" max="15363" width="40.125" style="26" customWidth="1"/>
+    <col min="15364" max="15364" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15366" width="21.625" style="26" customWidth="1"/>
+    <col min="15367" max="15367" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="10.125" style="26" customWidth="1"/>
+    <col min="15369" max="15369" width="11.625" style="26" customWidth="1"/>
+    <col min="15370" max="15616" width="9" style="26"/>
+    <col min="15617" max="15617" width="3.125" style="26" customWidth="1"/>
+    <col min="15618" max="15618" width="9.75" style="26" customWidth="1"/>
+    <col min="15619" max="15619" width="40.125" style="26" customWidth="1"/>
+    <col min="15620" max="15620" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15622" width="21.625" style="26" customWidth="1"/>
+    <col min="15623" max="15623" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="10.125" style="26" customWidth="1"/>
+    <col min="15625" max="15625" width="11.625" style="26" customWidth="1"/>
+    <col min="15626" max="15872" width="9" style="26"/>
+    <col min="15873" max="15873" width="3.125" style="26" customWidth="1"/>
+    <col min="15874" max="15874" width="9.75" style="26" customWidth="1"/>
+    <col min="15875" max="15875" width="40.125" style="26" customWidth="1"/>
+    <col min="15876" max="15876" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15878" width="21.625" style="26" customWidth="1"/>
+    <col min="15879" max="15879" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="10.125" style="26" customWidth="1"/>
+    <col min="15881" max="15881" width="11.625" style="26" customWidth="1"/>
+    <col min="15882" max="16128" width="9" style="26"/>
+    <col min="16129" max="16129" width="3.125" style="26" customWidth="1"/>
+    <col min="16130" max="16130" width="9.75" style="26" customWidth="1"/>
+    <col min="16131" max="16131" width="40.125" style="26" customWidth="1"/>
+    <col min="16132" max="16132" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16134" width="21.625" style="26" customWidth="1"/>
+    <col min="16135" max="16135" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="10.125" style="26" customWidth="1"/>
+    <col min="16137" max="16137" width="11.625" style="26" customWidth="1"/>
+    <col min="16138" max="16384" width="9" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="24"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B7" s="124" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="36" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="123" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="103" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="104" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="A11" s="37"/>
+      <c r="B11" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I11" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="A12" s="37"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="H12" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I12" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B13" s="63"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I13" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B14" s="63"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G14" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="H14" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I14" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B15" s="63"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G15" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="H15" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I15" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B16" s="63"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I16" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="B17" s="63"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G17" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I17" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B18" s="63"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G18" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="H18" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I18" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="63"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G19" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="H19" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I19" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="A20" s="37"/>
+      <c r="B20" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G20" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="H20" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I20" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="A21" s="37"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G21" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="H21" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I21" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B22" s="63"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G22" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="H22" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I22" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B23" s="63"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="F23" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G23" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="H23" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I23" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B24" s="63"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="F24" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G24" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="H24" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I24" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B25" s="63"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="F25" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G25" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="H25" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I25" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B26" s="63"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="F26" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G26" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="H26" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I26" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B27" s="63"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="F27" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G27" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="H27" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I27" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B28" s="63"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="F28" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G28" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="H28" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I28" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B29" s="63"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="F29" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G29" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="H29" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I29" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B30" s="63"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="F30" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G30" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="H30" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I30" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B31" s="63"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="F31" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G31" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="H31" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I31" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B32" s="63"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="F32" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G32" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="H32" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I32" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="B33" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="F33" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="G33" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="H33" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="I33" s="77" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B34" s="63"/>
+      <c r="C34" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="D34" s="46"/>
+      <c r="E34" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G34" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="H34" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I34" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B35" s="63"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G35" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="H35" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I35" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B36" s="63"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="F36" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G36" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="H36" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I36" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B37" s="63"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F37" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G37" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="H37" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I37" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B38" s="63"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="F38" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G38" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="H38" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I38" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B39" s="63"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="F39" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G39" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="H39" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I39" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B40" s="63"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="F40" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G40" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="H40" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I40" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B41" s="63"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="F41" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G41" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="H41" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I41" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B42" s="63"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="F42" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G42" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="H42" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I42" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B43" s="63"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="F43" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G43" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="H43" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I43" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B44" s="63"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="F44" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G44" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="H44" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I44" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B45" s="63"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="F45" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G45" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="H45" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I45" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B46" s="63"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="F46" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G46" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="H46" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I46" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B47" s="63"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="F47" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G47" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="H47" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I47" s="77">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="84" x14ac:dyDescent="0.15">
+      <c r="B48" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="C48" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="D48" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="E48" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="F48" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="G48" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="H48" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="I48" s="77" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B49" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="C49" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="F49" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="G49" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="H49" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I49" s="77">
+        <v>45559</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
+      <c r="B50" s="63" t="s">
+        <v>229</v>
+      </c>
+      <c r="C50" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="F50" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="G50" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="H50" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I50" s="77">
+        <v>45559</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
+      <c r="B51" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="C51" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="F51" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="G51" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="H51" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I51" s="77">
+        <v>45559</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B52" s="63"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="F52" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="G52" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="H52" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I52" s="77">
+        <v>45559</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B53" s="63"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="F53" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="G53" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="H53" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I53" s="77">
+        <v>45559</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B54" s="63"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="77"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B55" s="63"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="77"/>
+    </row>
+    <row r="56" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="71"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="76"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+    </row>
+    <row r="59" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="27"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+    </row>
+    <row r="60" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A60" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B62" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G56">
+      <formula1>"OK,NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
     <col min="2" max="3" width="9.125" style="26" customWidth="1"/>
@@ -13770,7 +17312,7 @@
     <col min="16137" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="6" customHeight="1">
+    <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -13780,51 +17322,51 @@
       <c r="G1" s="35"/>
       <c r="H1" s="35"/>
     </row>
-    <row r="2" spans="1:8" ht="17.25">
+    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" thickBot="1">
+    <row r="4" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="32" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="125" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="129" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="127" t="s">
+      <c r="D5" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="129" t="s">
+      <c r="E5" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="127" t="s">
+      <c r="F5" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="129" t="s">
+      <c r="G5" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="123" t="s">
+      <c r="H5" s="127" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" thickBot="1">
-      <c r="B6" s="126"/>
+    <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="130"/>
       <c r="C6" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="128"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="124"/>
-    </row>
-    <row r="7" spans="1:8" ht="21">
+      <c r="D6" s="132"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="128"/>
+    </row>
+    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.15">
       <c r="B7" s="120" t="s">
         <v>72</v>
       </c>
@@ -13847,7 +17389,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="21">
+    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.15">
       <c r="B8" s="67" t="s">
         <v>168</v>
       </c>
@@ -13870,7 +17412,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="21">
+    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.15">
       <c r="B9" s="67" t="s">
         <v>169</v>
       </c>
@@ -13893,7 +17435,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="21">
+    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.15">
       <c r="B10" s="67" t="s">
         <v>170</v>
       </c>
@@ -13916,7 +17458,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="21">
+    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.15">
       <c r="B11" s="67" t="s">
         <v>171</v>
       </c>
@@ -13939,7 +17481,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="42">
+    <row r="12" spans="1:8" ht="42" x14ac:dyDescent="0.15">
       <c r="B12" s="67" t="s">
         <v>172</v>
       </c>
@@ -13962,7 +17504,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" s="67"/>
       <c r="C13" s="42"/>
       <c r="D13" s="53"/>
@@ -13971,7 +17513,7 @@
       <c r="G13" s="48"/>
       <c r="H13" s="70"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="67"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -13980,7 +17522,7 @@
       <c r="G14" s="52"/>
       <c r="H14" s="69"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" s="67"/>
       <c r="C15" s="42"/>
       <c r="D15" s="53"/>
@@ -13989,7 +17531,7 @@
       <c r="G15" s="48"/>
       <c r="H15" s="70"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" s="67"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -13998,7 +17540,7 @@
       <c r="G16" s="52"/>
       <c r="H16" s="68"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="67"/>
       <c r="C17" s="42"/>
       <c r="D17" s="53"/>
@@ -14007,7 +17549,7 @@
       <c r="G17" s="48"/>
       <c r="H17" s="69"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="67"/>
       <c r="C18" s="46"/>
       <c r="D18" s="42"/>
@@ -14016,7 +17558,7 @@
       <c r="G18" s="52"/>
       <c r="H18" s="68"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="67"/>
       <c r="C19" s="42"/>
       <c r="D19" s="46"/>
@@ -14025,7 +17567,7 @@
       <c r="G19" s="48"/>
       <c r="H19" s="69"/>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="67"/>
       <c r="C20" s="46"/>
       <c r="D20" s="42"/>
@@ -14034,7 +17576,7 @@
       <c r="G20" s="52"/>
       <c r="H20" s="68"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="67"/>
       <c r="C21" s="42"/>
       <c r="D21" s="46"/>
@@ -14043,7 +17585,7 @@
       <c r="G21" s="48"/>
       <c r="H21" s="69"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="67"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -14052,7 +17594,7 @@
       <c r="G22" s="52"/>
       <c r="H22" s="68"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="65"/>
       <c r="C23" s="54"/>
       <c r="D23" s="54"/>
@@ -14061,7 +17603,7 @@
       <c r="G23" s="55"/>
       <c r="H23" s="68"/>
     </row>
-    <row r="24" spans="2:8" ht="14.25" thickBot="1">
+    <row r="24" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="71"/>
       <c r="C24" s="72"/>
       <c r="D24" s="72"/>
@@ -14091,13 +17633,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="26" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="26" customWidth="1"/>
@@ -14109,7 +17651,7 @@
     <col min="9" max="16384" width="8.875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="6" customHeight="1">
+    <row r="1" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="27"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -14118,25 +17660,25 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
     </row>
-    <row r="2" spans="1:7" ht="17.25">
+    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="6" customHeight="1">
+    <row r="4" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="31" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" thickBot="1">
+    <row r="6" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="14.25" thickBot="1">
+    <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="58"/>
       <c r="B7" s="107" t="s">
         <v>60</v>
@@ -14157,7 +17699,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34"/>
       <c r="B8" s="59"/>
       <c r="C8" s="60"/>
@@ -14166,7 +17708,7 @@
       <c r="F8" s="61"/>
       <c r="G8" s="62"/>
     </row>
-    <row r="9" spans="1:7" ht="14.1" customHeight="1">
+    <row r="9" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34"/>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -14175,23 +17717,23 @@
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="6" customHeight="1">
+    <row r="11" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
     </row>
-    <row r="12" spans="1:7" ht="14.25">
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="31" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" thickBot="1">
+    <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" thickBot="1">
+    <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="58"/>
       <c r="B14" s="107" t="s">
         <v>60</v>
@@ -14212,7 +17754,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.1" customHeight="1">
+    <row r="15" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
       <c r="B15" s="63"/>
       <c r="C15" s="39"/>
@@ -14221,7 +17763,7 @@
       <c r="F15" s="40"/>
       <c r="G15" s="64"/>
     </row>
-    <row r="16" spans="1:7" ht="14.1" customHeight="1">
+    <row r="16" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="34"/>
       <c r="B16" s="63"/>
       <c r="C16" s="39"/>
@@ -14230,7 +17772,7 @@
       <c r="F16" s="40"/>
       <c r="G16" s="64"/>
     </row>
-    <row r="17" spans="1:7" ht="14.1" customHeight="1">
+    <row r="17" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="34"/>
       <c r="B17" s="63"/>
       <c r="C17" s="39"/>
@@ -14239,7 +17781,7 @@
       <c r="F17" s="40"/>
       <c r="G17" s="64"/>
     </row>
-    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
+    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="34"/>
       <c r="B18" s="59"/>
       <c r="C18" s="60"/>
@@ -14262,11 +17804,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="15"/>
     <col min="2" max="2" width="9.125" style="15" bestFit="1" customWidth="1"/>
@@ -14527,7 +18069,7 @@
     <col min="16133" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="8.1" customHeight="1">
+    <row r="1" spans="1:9" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -14538,29 +18080,29 @@
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="3.95" customHeight="1">
+    <row r="4" spans="1:9" ht="3.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="14.25">
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
     </row>
-    <row r="7" spans="1:9" ht="14.25" thickBot="1">
+    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="96" t="s">
         <v>10</v>
       </c>
@@ -14578,7 +18120,7 @@
       <c r="H7" s="98"/>
       <c r="I7" s="99"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="88">
         <v>44768</v>
       </c>
@@ -14596,7 +18138,7 @@
       <c r="H8" s="23"/>
       <c r="I8" s="89"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" s="88">
         <v>44792</v>
       </c>
@@ -14614,7 +18156,7 @@
       <c r="H9" s="23"/>
       <c r="I9" s="89"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10" s="88">
         <v>45344</v>
       </c>
@@ -14632,27 +18174,45 @@
       <c r="H10" s="23"/>
       <c r="I10" s="89"/>
     </row>
-    <row r="11" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B11" s="90"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="95"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="17"/>
-    </row>
-    <row r="13" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="88">
+        <v>45589</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="89"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="90"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="95"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="17"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="17"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -14672,7 +18232,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="13" width="6.625" style="26" customWidth="1"/>
     <col min="14" max="256" width="9" style="26"/>
@@ -14804,7 +18364,7 @@
     <col min="16142" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1">
+    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -14819,156 +18379,156 @@
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:13" ht="17.25">
+    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="4" spans="1:13" ht="6" customHeight="1">
+    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="13.5" customHeight="1">
+    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="28"/>
     </row>
-    <row r="7" spans="1:13" ht="14.45" customHeight="1">
+    <row r="7" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="9" spans="1:13" ht="14.45" customHeight="1">
+    <row r="8" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="26" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.45" customHeight="1">
+    <row r="10" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="12" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="13" spans="1:13" ht="6" customHeight="1">
+    <row r="11" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="27"/>
       <c r="B13" s="27"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="28"/>
     </row>
-    <row r="16" spans="1:13" ht="14.45" customHeight="1">
+    <row r="16" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.45" customHeight="1">
+    <row r="17" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="19" spans="1:13" ht="14.45" customHeight="1">
+    <row r="18" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="26" t="s">
         <v>22</v>
       </c>
       <c r="J19" s="29"/>
     </row>
-    <row r="20" spans="1:13" ht="14.45" customHeight="1">
+    <row r="20" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="26" t="s">
         <v>33</v>
       </c>
       <c r="J20" s="29"/>
     </row>
-    <row r="21" spans="1:13" ht="14.45" customHeight="1">
+    <row r="21" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J21" s="29"/>
     </row>
-    <row r="22" spans="1:13" ht="14.45" customHeight="1">
+    <row r="22" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J22" s="29"/>
     </row>
-    <row r="23" spans="1:13" ht="6" customHeight="1">
+    <row r="23" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="27"/>
       <c r="B23" s="27"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="14.45" customHeight="1">
+    <row r="25" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J25" s="29"/>
     </row>
-    <row r="26" spans="1:13" ht="14.45" customHeight="1">
+    <row r="26" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="26" t="s">
         <v>24</v>
       </c>
       <c r="M26" s="29"/>
     </row>
-    <row r="27" spans="1:13" ht="14.45" customHeight="1">
+    <row r="27" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="26" t="s">
         <v>25</v>
       </c>
       <c r="M27" s="29"/>
     </row>
-    <row r="28" spans="1:13" ht="14.45" customHeight="1">
+    <row r="28" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="26" t="s">
         <v>26</v>
       </c>
       <c r="M28" s="29"/>
     </row>
-    <row r="29" spans="1:13" ht="14.45" customHeight="1">
+    <row r="29" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="26" t="s">
         <v>27</v>
       </c>
       <c r="M29" s="29"/>
     </row>
-    <row r="30" spans="1:13" ht="14.45" customHeight="1">
+    <row r="30" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="26" t="s">
         <v>28</v>
       </c>
       <c r="M30" s="29"/>
     </row>
-    <row r="31" spans="1:13" ht="14.45" customHeight="1">
+    <row r="31" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="26" t="s">
         <v>29</v>
       </c>
       <c r="M31" s="29"/>
     </row>
-    <row r="32" spans="1:13" ht="14.45" customHeight="1">
+    <row r="32" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="26" t="s">
         <v>30</v>
       </c>
       <c r="M32" s="29"/>
     </row>
-    <row r="33" spans="2:13" ht="14.45" customHeight="1">
+    <row r="33" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="26" t="s">
         <v>31</v>
       </c>
       <c r="M33" s="29"/>
     </row>
-    <row r="34" spans="2:13" ht="14.45" customHeight="1">
+    <row r="34" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="26" t="s">
         <v>32</v>
       </c>
       <c r="M34" s="29"/>
     </row>
-    <row r="35" spans="2:13" ht="14.45" customHeight="1">
+    <row r="35" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M35" s="29"/>
     </row>
-    <row r="36" spans="2:13" ht="14.45" customHeight="1">
+    <row r="36" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M36" s="29"/>
     </row>
-    <row r="37" spans="2:13" ht="14.45" customHeight="1">
+    <row r="37" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M37" s="29"/>
     </row>
   </sheetData>
@@ -14988,11 +18548,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="2.75" style="81"/>
     <col min="4" max="4" width="22.125" style="81" customWidth="1"/>
@@ -15001,7 +18561,7 @@
     <col min="7" max="16384" width="2.75" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="6" customHeight="1">
+    <row r="1" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="80"/>
       <c r="B1" s="80"/>
       <c r="C1" s="80"/>
@@ -15009,7 +18569,7 @@
       <c r="E1" s="80"/>
       <c r="F1" s="80"/>
     </row>
-    <row r="2" spans="1:6" ht="17.25">
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="79" t="s">
         <v>73</v>
       </c>
@@ -15019,7 +18579,7 @@
       <c r="E2" s="78"/>
       <c r="F2" s="78"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="78"/>
       <c r="B3" s="78"/>
       <c r="C3" s="82"/>
@@ -15027,7 +18587,7 @@
       <c r="E3" s="82"/>
       <c r="F3" s="82"/>
     </row>
-    <row r="4" spans="1:6" s="84" customFormat="1" ht="11.25">
+    <row r="4" spans="1:6" s="84" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A4" s="83"/>
       <c r="B4" s="83"/>
       <c r="C4" s="83"/>
@@ -15037,7 +18597,7 @@
       <c r="E4" s="83"/>
       <c r="F4" s="83"/>
     </row>
-    <row r="5" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="83"/>
       <c r="B5" s="83"/>
       <c r="C5" s="83"/>
@@ -15045,7 +18605,7 @@
       <c r="E5" s="83"/>
       <c r="F5" s="83"/>
     </row>
-    <row r="6" spans="1:6" s="84" customFormat="1" ht="12">
+    <row r="6" spans="1:6" s="84" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="83"/>
       <c r="B6" s="83"/>
       <c r="C6" s="83"/>
@@ -15057,7 +18617,7 @@
       </c>
       <c r="F6" s="83"/>
     </row>
-    <row r="7" spans="1:6" s="84" customFormat="1">
+    <row r="7" spans="1:6" s="84" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="83"/>
       <c r="B7" s="83"/>
       <c r="C7" s="83"/>
@@ -15069,7 +18629,7 @@
       </c>
       <c r="F7" s="83"/>
     </row>
-    <row r="8" spans="1:6" s="84" customFormat="1">
+    <row r="8" spans="1:6" s="84" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="83"/>
       <c r="B8" s="83"/>
       <c r="C8" s="83"/>
@@ -15081,7 +18641,7 @@
       </c>
       <c r="F8" s="83"/>
     </row>
-    <row r="9" spans="1:6" s="84" customFormat="1">
+    <row r="9" spans="1:6" s="84" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="83"/>
       <c r="B9" s="83"/>
       <c r="C9" s="83"/>
@@ -15093,7 +18653,7 @@
       </c>
       <c r="F9" s="83"/>
     </row>
-    <row r="10" spans="1:6" s="84" customFormat="1">
+    <row r="10" spans="1:6" s="84" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="83"/>
       <c r="B10" s="83"/>
       <c r="C10" s="83"/>
@@ -15105,7 +18665,7 @@
       </c>
       <c r="F10" s="83"/>
     </row>
-    <row r="11" spans="1:6" s="84" customFormat="1">
+    <row r="11" spans="1:6" s="84" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="83"/>
       <c r="B11" s="83"/>
       <c r="C11" s="83"/>
@@ -15117,7 +18677,7 @@
       </c>
       <c r="F11" s="83"/>
     </row>
-    <row r="12" spans="1:6" s="84" customFormat="1">
+    <row r="12" spans="1:6" s="84" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="83"/>
       <c r="B12" s="83"/>
       <c r="C12" s="83"/>
@@ -15129,7 +18689,7 @@
       </c>
       <c r="F12" s="83"/>
     </row>
-    <row r="13" spans="1:6" s="84" customFormat="1">
+    <row r="13" spans="1:6" s="84" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="83"/>
       <c r="B13" s="83"/>
       <c r="C13" s="83"/>
@@ -15141,29 +18701,41 @@
       </c>
       <c r="F13" s="83"/>
     </row>
-    <row r="14" spans="1:6" s="84" customFormat="1" ht="12" thickBot="1">
-      <c r="A14" s="86"/>
+    <row r="14" spans="1:6" s="84" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="83"/>
       <c r="B14" s="83"/>
       <c r="C14" s="83"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="115"/>
+      <c r="D14" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="E14" s="116" t="s">
+        <v>256</v>
+      </c>
       <c r="F14" s="83"/>
     </row>
-    <row r="15" spans="1:6" s="84" customFormat="1" ht="11.25">
-      <c r="A15" s="83"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-    </row>
-    <row r="16" spans="1:6" s="84" customFormat="1" ht="11.25">
-      <c r="A16" s="86"/>
+    <row r="15" spans="1:6" s="84" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="86"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="83"/>
+    </row>
+    <row r="16" spans="1:6" s="84" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="83"/>
       <c r="B16" s="86"/>
       <c r="C16" s="86"/>
       <c r="D16" s="86"/>
       <c r="E16" s="86"/>
       <c r="F16" s="86"/>
+    </row>
+    <row r="17" spans="1:6" s="84" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="86"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -15174,6 +18746,7 @@
     <hyperlink ref="D10" location="'テスト仕様_テスト結果(テスト・シナリオ4)'!A1" display="シナリオ4"/>
     <hyperlink ref="D11" location="'テスト仕様_テスト結果(テスト・シナリオ5)'!A1" display="シナリオ5"/>
     <hyperlink ref="D12" location="'テスト仕様_テスト結果(テスト・シナリオ6)'!A1" display="シナリオ6"/>
+    <hyperlink ref="D14" location="'テスト仕様_テスト結果(テスト・シナリオ8)'!A1" display="シナリオ8"/>
     <hyperlink ref="D13" location="'テスト仕様_テスト結果(テスト・シナリオ7)'!A1" display="シナリオ7"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -15189,11 +18762,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="26" customWidth="1"/>
@@ -15453,7 +19026,7 @@
     <col min="16132" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -15464,35 +19037,35 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="2" spans="1:9" ht="14.25">
+    <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="32"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7" s="32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="112" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" s="113" t="s">
         <v>91</v>
       </c>
@@ -15500,7 +19073,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10" s="113" t="s">
         <v>118</v>
       </c>
@@ -15508,22 +19081,22 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B11" s="117" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B12" s="33" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B13" s="112" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B14" s="113" t="s">
         <v>91</v>
       </c>
@@ -15531,7 +19104,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="113" t="s">
         <v>118</v>
       </c>
@@ -15539,17 +19112,17 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="117" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" s="112" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" s="113" t="s">
         <v>91</v>
       </c>
@@ -15557,7 +19130,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" s="113" t="s">
         <v>118</v>
       </c>
@@ -15565,17 +19138,17 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B20" s="117" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B21" s="112" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B22" s="113" t="s">
         <v>91</v>
       </c>
@@ -15583,7 +19156,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B23" s="113" t="s">
         <v>118</v>
       </c>
@@ -15591,77 +19164,200 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B24" s="117" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B25" s="32"/>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B26" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B27" s="32" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B28" s="33" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B29" s="32" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B30" s="33" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B31" s="32" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B32" s="33" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B33" s="32" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B34" s="33" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B35" s="32" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B36" s="32"/>
     </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="32"/>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B37" s="33" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B38" s="32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B39" s="32"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B40" s="32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B41" s="112" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B42" s="113" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="121">
+        <v>2574981</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B43" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="121">
+        <v>2574980</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B44" s="117" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B45" s="32"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B46" s="122" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B47" s="112" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B48" s="113" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="121" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B49" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="121" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B50" s="117"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B51" s="122" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B52" s="112" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B53" s="113" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="121" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B54" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="121" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B56" s="112" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B57" s="113" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="121" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B58" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="121" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B59" s="117"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -15684,7 +19380,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="26" customWidth="1"/>
@@ -16264,7 +19960,7 @@
     <col min="16138" max="16384" width="8.875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -16275,35 +19971,35 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="32" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="24"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="102" t="s">
         <v>41</v>
       </c>
@@ -16329,7 +20025,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="42">
+    <row r="11" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="63" t="s">
         <v>79</v>
@@ -16356,7 +20052,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="21">
+    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A12" s="37"/>
       <c r="B12" s="63"/>
       <c r="C12" s="56"/>
@@ -16377,7 +20073,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="31.5">
+    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A13" s="37"/>
       <c r="B13" s="63"/>
       <c r="C13" s="56"/>
@@ -16398,7 +20094,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="31.5">
+    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A14" s="37"/>
       <c r="B14" s="63"/>
       <c r="C14" s="56"/>
@@ -16419,7 +20115,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="31.5">
+    <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A15" s="37"/>
       <c r="B15" s="63"/>
       <c r="C15" s="56"/>
@@ -16440,7 +20136,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="21">
+    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B16" s="63"/>
       <c r="C16" s="56"/>
       <c r="D16" s="56"/>
@@ -16460,7 +20156,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="42">
+    <row r="17" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B17" s="63"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -16480,7 +20176,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="118"/>
       <c r="C18" s="54"/>
       <c r="D18" s="54"/>
@@ -16500,7 +20196,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.25" thickBot="1">
+    <row r="19" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="71"/>
       <c r="C19" s="47"/>
       <c r="D19" s="47"/>
@@ -16510,7 +20206,7 @@
       <c r="H19" s="47"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="34"/>
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
@@ -16520,7 +20216,7 @@
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
@@ -16530,7 +20226,7 @@
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
     </row>
-    <row r="22" spans="1:9" ht="6" customHeight="1">
+    <row r="22" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
@@ -16540,7 +20236,7 @@
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
     </row>
-    <row r="23" spans="1:9" ht="14.25">
+    <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="31" t="s">
         <v>49</v>
       </c>
@@ -16550,7 +20246,7 @@
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
@@ -16560,7 +20256,7 @@
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="38" t="s">
         <v>186</v>
       </c>
@@ -16572,7 +20268,7 @@
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
@@ -16582,7 +20278,7 @@
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="34"/>
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
@@ -16592,7 +20288,7 @@
       <c r="H27" s="34"/>
       <c r="I27" s="34"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
       <c r="D28" s="34"/>
@@ -16602,7 +20298,7 @@
       <c r="H28" s="34"/>
       <c r="I28" s="34"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="34"/>
       <c r="C29" s="34"/>
       <c r="D29" s="34"/>
@@ -16638,7 +20334,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="26" customWidth="1"/>
@@ -17218,7 +20914,7 @@
     <col min="16138" max="16384" width="8.875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -17229,35 +20925,35 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="32" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="24"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="36" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="102" t="s">
         <v>41</v>
       </c>
@@ -17283,7 +20979,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="63" t="s">
         <v>86</v>
@@ -17310,7 +21006,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="21">
+    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A12" s="37"/>
       <c r="B12" s="63"/>
       <c r="C12" s="46"/>
@@ -17331,7 +21027,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="31.5">
+    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B13" s="63"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -17351,7 +21047,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="31.5">
+    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B14" s="63"/>
       <c r="C14" s="56"/>
       <c r="D14" s="56"/>
@@ -17371,7 +21067,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="31.5">
+    <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B15" s="63"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -17391,7 +21087,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="21">
+    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B16" s="63"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -17411,7 +21107,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="63">
+    <row r="17" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B17" s="63"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -17431,7 +21127,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="63"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -17451,7 +21147,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.25" thickBot="1">
+    <row r="19" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="71"/>
       <c r="C19" s="47"/>
       <c r="D19" s="47"/>
@@ -17461,7 +21157,7 @@
       <c r="H19" s="47"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="34"/>
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
@@ -17471,7 +21167,7 @@
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
@@ -17481,7 +21177,7 @@
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
     </row>
-    <row r="22" spans="1:9" ht="6" customHeight="1">
+    <row r="22" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
@@ -17491,7 +21187,7 @@
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
     </row>
-    <row r="23" spans="1:9" ht="14.25">
+    <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="31" t="s">
         <v>49</v>
       </c>
@@ -17501,7 +21197,7 @@
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
@@ -17511,7 +21207,7 @@
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="38" t="s">
         <v>187</v>
       </c>
@@ -17523,7 +21219,7 @@
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
@@ -17533,7 +21229,7 @@
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="34"/>
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
@@ -17543,7 +21239,7 @@
       <c r="H27" s="34"/>
       <c r="I27" s="34"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
       <c r="D28" s="34"/>
@@ -17553,7 +21249,7 @@
       <c r="H28" s="34"/>
       <c r="I28" s="34"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="34"/>
       <c r="C29" s="34"/>
       <c r="D29" s="34"/>
@@ -17589,7 +21285,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="26" customWidth="1"/>
@@ -18169,7 +21865,7 @@
     <col min="16138" max="16384" width="8.875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -18180,35 +21876,35 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="32" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="24"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="36" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="102" t="s">
         <v>41</v>
       </c>
@@ -18234,7 +21930,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="63" t="s">
         <v>87</v>
@@ -18261,7 +21957,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="21">
+    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A12" s="37"/>
       <c r="B12" s="63"/>
       <c r="C12" s="56"/>
@@ -18282,7 +21978,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="21">
+    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B13" s="63"/>
       <c r="C13" s="56"/>
       <c r="D13" s="56"/>
@@ -18302,7 +21998,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="31.5">
+    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B14" s="63"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -18322,7 +22018,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="63"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -18342,7 +22038,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="63"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -18352,7 +22048,7 @@
       <c r="H16" s="46"/>
       <c r="I16" s="75"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="63"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -18362,7 +22058,7 @@
       <c r="H17" s="46"/>
       <c r="I17" s="75"/>
     </row>
-    <row r="18" spans="1:9" ht="14.25" thickBot="1">
+    <row r="18" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="71"/>
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
@@ -18372,7 +22068,7 @@
       <c r="H18" s="47"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="34"/>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
@@ -18382,7 +22078,7 @@
       <c r="H19" s="34"/>
       <c r="I19" s="34"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="34"/>
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
@@ -18392,7 +22088,7 @@
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
     </row>
-    <row r="21" spans="1:9" ht="6" customHeight="1">
+    <row r="21" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -18402,7 +22098,7 @@
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
     </row>
-    <row r="22" spans="1:9" ht="14.25">
+    <row r="22" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="31" t="s">
         <v>49</v>
       </c>
@@ -18412,7 +22108,7 @@
       <c r="H22" s="34"/>
       <c r="I22" s="34"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="34"/>
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
@@ -18422,7 +22118,7 @@
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="38" t="s">
         <v>186</v>
       </c>
@@ -18434,7 +22130,7 @@
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="34"/>
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
@@ -18444,7 +22140,7 @@
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
@@ -18454,7 +22150,7 @@
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="34"/>
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
@@ -18464,7 +22160,7 @@
       <c r="H27" s="34"/>
       <c r="I27" s="34"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
       <c r="D28" s="34"/>
@@ -18500,7 +22196,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="26" customWidth="1"/>
@@ -19080,7 +22776,7 @@
     <col min="16138" max="16384" width="8.875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -19091,35 +22787,35 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="32" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="24"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="36" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="102" t="s">
         <v>41</v>
       </c>
@@ -19145,7 +22841,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="63" t="s">
         <v>102</v>
@@ -19172,7 +22868,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="21">
+    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A12" s="37"/>
       <c r="B12" s="63"/>
       <c r="C12" s="56"/>
@@ -19193,7 +22889,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="21">
+    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B13" s="63"/>
       <c r="C13" s="56"/>
       <c r="D13" s="56"/>
@@ -19213,7 +22909,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="31.5">
+    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B14" s="63"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -19233,7 +22929,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="63"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -19253,7 +22949,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="118"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -19263,7 +22959,7 @@
       <c r="H16" s="54"/>
       <c r="I16" s="75"/>
     </row>
-    <row r="17" spans="1:9" ht="14.25" thickBot="1">
+    <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="71"/>
       <c r="C17" s="47"/>
       <c r="D17" s="47"/>
@@ -19273,7 +22969,7 @@
       <c r="H17" s="47"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
@@ -19283,7 +22979,7 @@
       <c r="H18" s="34"/>
       <c r="I18" s="34"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="34"/>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
@@ -19293,7 +22989,7 @@
       <c r="H19" s="34"/>
       <c r="I19" s="34"/>
     </row>
-    <row r="20" spans="1:9" ht="6" customHeight="1">
+    <row r="20" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="27"/>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
@@ -19303,7 +22999,7 @@
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
     </row>
-    <row r="21" spans="1:9" ht="14.25">
+    <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="31" t="s">
         <v>49</v>
       </c>
@@ -19313,7 +23009,7 @@
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
@@ -19323,7 +23019,7 @@
       <c r="H22" s="34"/>
       <c r="I22" s="34"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="38" t="s">
         <v>188</v>
       </c>
@@ -19335,7 +23031,7 @@
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
@@ -19345,7 +23041,7 @@
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="34"/>
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
@@ -19355,7 +23051,7 @@
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
@@ -19365,7 +23061,7 @@
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="34"/>
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
